--- a/examples/wangetal2018/out/ResultFiles/AC_0.5_b.xlsx
+++ b/examples/wangetal2018/out/ResultFiles/AC_0.5_b.xlsx
@@ -20,12 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="180">
   <si>
     <t xml:space="preserve">
 ---------DISCLAIMER---------
 AS NOTED IN THE LICENSE, ALLIANCE FOR SUSTAINABLE ENERGY, LLC: (i) DISCLAIMS ANY WARRANTIES, EXPRESS OR IMPLIED, INCLUDING BUT NOT LIMITED TO ANY IMPLIED WARRANTIES OF MERCHANTABILITY, FITNESS FOR A PARTICULAR PURPOSE, TITLE OR NON-INFRINGEMENT, AND (ii) DOES NOT ASSUME ANY LEGAL LIABILITY OR RESPONSIBILITY FOR THE ACCURACY, COMPLETENESS, OR USEFULNESS OF SOFTWARE OR ITS OUTPUTS. ANY RELIANCE BY THE USER ON THE SOFTWARE IS DONE AT THE USER’S OWN RISK.
-BlendPATH was developed to provide the user with economic analytical capabilities to evaluate potential natural gas transmission pipeline modifications for accommodating hydrogen blending or pure hydrogen streams and to assess the potential associated economic impacts. This tool is intended for use during the early stages of pipeline repurposing concept evaluation, which is defined here as the initial project phase when the developer has already gathered the relevant pipeline material design and operation data but has not yet conducted the detailed pipeline materials testing, as specified in ASME B31.12, or performed the in-line inspections that qualify a given pipeline section for hydrogen or hydrogen blending service. Despite BlendPATH using ASME B31.12 to assess existing natural gas transmission pipelines and establish potential pipeline modifications for a natural gas transmission pipeline network to meet ASME B31.12 design requirements, BlendPATH does not qualify the examined pipeline network or modifications thereof for pure hydrogen or hydrogen blending. Further, actual natural gas transmission pipeline network assessment and qualification will require additional evaluations, independent of BlendPATH application, as specified in ASME B31.12. It is the sole responsibility of the pipeline owner and operator to ensure that their pipeline qualifies for the ASME B31.12 design option that they choose, and any other relevant regulations, and that any defects present in the pipeline are acceptable at the operating pressure chosen.
+BlendPATH was developed to provide the user with economic analytical capabilities to evaluate potential natural gas transmission pipeline modifications for accommodating hydrogen blending or pure hydrogen streams and to assess the potential associated economic impacts. This model is intended for use during the early stages of pipeline repurposing concept evaluation, which is defined here as the initial project phase when the developer has already gathered the relevant pipeline material design and operation data but has not yet conducted the detailed pipeline materials testing, as specified in ASME B31.12, or performed the in-line inspections that qualify a given pipeline section for hydrogen or hydrogen blending service. Despite BlendPATH using ASME B31.12 to assess existing natural gas transmission pipelines and establish potential pipeline modifications for a natural gas transmission pipeline network to meet ASME B31.12 design requirements, BlendPATH does not qualify the examined pipeline network or modifications thereof for pure hydrogen or hydrogen blending. Pipeline owners and operators must conduct additional evaluations as specified in ASME B31.12 and other relevant code and regulations, independent of BlendPATH application, to qualify actual natural gas transmission pipelines for operation with hydrogen. Failure to do so may result in pipeline fatigue and/or rupture. It is the sole responsibility of the pipeline owner and operator to ensure that their pipeline qualifies for the ASME B31.12 design option that they choose, and any other relevant code and regulations, and that any defects present in the pipeline are acceptable at the operating pressure chosen.
 ----------------------------
 </t>
   </si>
@@ -171,12 +171,12 @@
     <t>LCOT: Compressor fuel (electric)</t>
   </si>
   <si>
+    <t>LCOT: Supply commpressor fuel (electric)</t>
+  </si>
+  <si>
     <t>LCOT: Supply commpressor fuel</t>
   </si>
   <si>
-    <t>LCOT: Supply commpressor fuel (electric)</t>
-  </si>
-  <si>
     <t>LCOT: Fixed O&amp;M</t>
   </si>
   <si>
@@ -231,6 +231,9 @@
     <t>Valve modifications</t>
   </si>
   <si>
+    <t>Hydrogen energy ratio</t>
+  </si>
+  <si>
     <t>$/MMBTU</t>
   </si>
   <si>
@@ -258,6 +261,9 @@
     <t>$</t>
   </si>
   <si>
+    <t>%</t>
+  </si>
+  <si>
     <t>Breakdown of original pipe by diameter, schedule and grade</t>
   </si>
   <si>
@@ -324,9 +330,6 @@
     <t>Electric power (kW)</t>
   </si>
   <si>
-    <t>Supply compressor</t>
-  </si>
-  <si>
     <t>C_0_0</t>
   </si>
   <si>
@@ -336,6 +339,9 @@
     <t>C_1_0</t>
   </si>
   <si>
+    <t>C_1_1</t>
+  </si>
+  <si>
     <t>CS2</t>
   </si>
   <si>
@@ -411,7 +417,10 @@
     <t>PI04_remaining</t>
   </si>
   <si>
-    <t>PI05</t>
+    <t>PI05_pre_C_1_1</t>
+  </si>
+  <si>
+    <t>PI05_remaining</t>
   </si>
   <si>
     <t>PI06</t>
@@ -447,6 +456,9 @@
     <t>N05</t>
   </si>
   <si>
+    <t>N_post_C_1_1</t>
+  </si>
+  <si>
     <t>N06_C</t>
   </si>
   <si>
@@ -468,6 +480,9 @@
     <t>N_pre_C_1_0</t>
   </si>
   <si>
+    <t>N_pre_C_1_1</t>
+  </si>
+  <si>
     <t>N06</t>
   </si>
   <si>
@@ -507,7 +522,7 @@
     <t>Isentropic efficiency</t>
   </si>
   <si>
-    <t>Mechanical efficiency</t>
+    <t>Driver efficiency</t>
   </si>
   <si>
     <t>Cost ($)</t>
@@ -517,9 +532,6 @@
   </si>
   <si>
     <t>Total cost ($)</t>
-  </si>
-  <si>
-    <t>Supply compressor from_node</t>
   </si>
   <si>
     <t>New</t>
@@ -1152,7 +1164,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H57"/>
+  <dimension ref="A1:H58"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1174,10 +1186,10 @@
         <v>37</v>
       </c>
       <c r="B2">
-        <v>0.2303649330253311</v>
+        <v>0.2300600568206976</v>
       </c>
       <c r="C2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1188,7 +1200,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1196,10 +1208,10 @@
         <v>39</v>
       </c>
       <c r="B4">
-        <v>0.02091896859625859</v>
+        <v>0.02653096406713577</v>
       </c>
       <c r="C4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1207,10 +1219,10 @@
         <v>40</v>
       </c>
       <c r="B5">
-        <v>0.03117897750857684</v>
+        <v>0.03164061517833026</v>
       </c>
       <c r="C5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1218,10 +1230,10 @@
         <v>41</v>
       </c>
       <c r="B6">
-        <v>0.006115422032638007</v>
+        <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1229,10 +1241,10 @@
         <v>42</v>
       </c>
       <c r="B7">
-        <v>0.006442931214475329</v>
+        <v>0.006538325611274064</v>
       </c>
       <c r="C7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1240,10 +1252,10 @@
         <v>43</v>
       </c>
       <c r="B8">
-        <v>0.01527497247280263</v>
+        <v>0.01550113456217688</v>
       </c>
       <c r="C8" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1254,7 +1266,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1265,7 +1277,7 @@
         <v>0.01701801172198347</v>
       </c>
       <c r="C10" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1273,10 +1285,10 @@
         <v>46</v>
       </c>
       <c r="B11">
-        <v>0.1074900668380213</v>
+        <v>0.1068894246116708</v>
       </c>
       <c r="C11" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1287,7 +1299,7 @@
         <v>0</v>
       </c>
       <c r="C12" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1298,7 +1310,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -1306,10 +1318,10 @@
         <v>49</v>
       </c>
       <c r="B14">
-        <v>0.001322853116524712</v>
+        <v>0</v>
       </c>
       <c r="C14" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -1317,10 +1329,10 @@
         <v>50</v>
       </c>
       <c r="B15">
-        <v>0.002470724823575287</v>
+        <v>0.003066552154942942</v>
       </c>
       <c r="C15" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -1328,10 +1340,10 @@
         <v>51</v>
       </c>
       <c r="B16">
-        <v>0.02117371084409466</v>
+        <v>0.02192070643429869</v>
       </c>
       <c r="C16" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -1339,10 +1351,10 @@
         <v>52</v>
       </c>
       <c r="B17">
-        <v>0.0009582938563803137</v>
+        <v>0.0009543224788847288</v>
       </c>
       <c r="C17" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -1353,7 +1365,7 @@
         <v>4.40756</v>
       </c>
       <c r="C18" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -1364,7 +1376,7 @@
         <v>7.39</v>
       </c>
       <c r="C19" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -1375,7 +1387,7 @@
         <v>13.54723404173073</v>
       </c>
       <c r="C20" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -1386,7 +1398,7 @@
         <v>527617.1846909181</v>
       </c>
       <c r="C21" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -1397,7 +1409,7 @@
         <v>21984.04936212159</v>
       </c>
       <c r="C22" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -1408,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -1419,7 +1431,7 @@
         <v>0</v>
       </c>
       <c r="C24" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -1435,10 +1447,10 @@
         <v>60</v>
       </c>
       <c r="B26">
-        <v>13150.72607636577</v>
+        <v>14291.94533960082</v>
       </c>
       <c r="C26" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -1446,10 +1458,10 @@
         <v>61</v>
       </c>
       <c r="B27">
-        <v>4186.36057165732</v>
+        <v>4162.967666544931</v>
       </c>
       <c r="C27" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -1457,10 +1469,10 @@
         <v>61</v>
       </c>
       <c r="B28">
-        <v>174.4316904857217</v>
+        <v>173.4569861060388</v>
       </c>
       <c r="C28" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -1471,7 +1483,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -1482,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="C30" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -1490,10 +1502,10 @@
         <v>64</v>
       </c>
       <c r="B31">
-        <v>44002191.50242309</v>
+        <v>42552757.00672232</v>
       </c>
       <c r="C31" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -1504,7 +1516,7 @@
         <v>50748077.07023712</v>
       </c>
       <c r="C32" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1515,7 +1527,7 @@
         <v>10486757.29473448</v>
       </c>
       <c r="C33" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1526,151 +1538,136 @@
         <v>24862120</v>
       </c>
       <c r="C34" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
-      <c r="A38" t="s">
         <v>77</v>
       </c>
     </row>
+    <row r="35" spans="1:8">
+      <c r="A35" t="s">
+        <v>68</v>
+      </c>
+      <c r="B35">
+        <v>24.24086700823207</v>
+      </c>
+      <c r="C35" t="s">
+        <v>78</v>
+      </c>
+    </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="B39" s="2" t="s">
+      <c r="A39" t="s">
         <v>79</v>
       </c>
-      <c r="C39" s="2" t="s">
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="D39" s="2" t="s">
+      <c r="B40" s="2" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="40" spans="1:8">
-      <c r="A40">
+      <c r="C40" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41">
         <v>650</v>
       </c>
-      <c r="B40">
+      <c r="B41">
         <v>400</v>
       </c>
-      <c r="C40" t="s">
-        <v>82</v>
-      </c>
-      <c r="D40" t="s">
+      <c r="C41" t="s">
+        <v>84</v>
+      </c>
+      <c r="D41" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D46" s="2" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="44" spans="1:8">
-      <c r="A44" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
-      <c r="A45" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="F45" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="G45" s="2" t="s">
+      <c r="E46" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="H45" s="2" t="s">
+      <c r="F46" s="2" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="49" spans="1:8">
-      <c r="A49" t="s">
+      <c r="G46" s="2" t="s">
         <v>90</v>
       </c>
+      <c r="H46" s="2" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="50" spans="1:8">
-      <c r="A50" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="B50" s="2" t="s">
+      <c r="A50" t="s">
         <v>92</v>
       </c>
-      <c r="C50" s="2" t="s">
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="D50" s="2" t="s">
+      <c r="B51" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="E50" s="2" t="s">
+      <c r="C51" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="F50" s="2" t="s">
+      <c r="D51" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="G50" s="2" t="s">
+      <c r="E51" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="H50" s="2" t="s">
+      <c r="F51" s="2" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="51" spans="1:8">
-      <c r="A51" t="s">
+      <c r="G51" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="B51">
-        <v>0.2246009325350105</v>
-      </c>
-      <c r="C51">
-        <v>0</v>
-      </c>
-      <c r="D51">
-        <v>301.1943425480998</v>
-      </c>
-      <c r="E51">
-        <v>9953691.026075777</v>
-      </c>
-      <c r="F51">
-        <v>0</v>
-      </c>
-      <c r="G51">
-        <v>2.146686779229829</v>
-      </c>
-      <c r="H51">
-        <v>0</v>
+      <c r="H51" s="2" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="52" spans="1:8">
       <c r="A52" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B52">
-        <v>3.062532110450391</v>
+        <v>3.336794919393752</v>
       </c>
       <c r="C52">
         <v>0</v>
       </c>
       <c r="D52">
-        <v>4106.916810756184</v>
+        <v>4474.70872280541</v>
       </c>
       <c r="E52">
-        <v>11153499.94850771</v>
+        <v>11554520.13345122</v>
       </c>
       <c r="F52">
         <v>0</v>
       </c>
       <c r="G52">
-        <v>29.2710146759782</v>
+        <v>31.89235885005626</v>
       </c>
       <c r="H52">
         <v>0</v>
@@ -1678,10 +1675,10 @@
     </row>
     <row r="53" spans="1:8">
       <c r="A53" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B53">
-        <v>3.04971036657189</v>
+        <v>3.048139688925118</v>
       </c>
       <c r="C53">
         <v>12.5</v>
@@ -1696,7 +1693,7 @@
         <v>16916025.69007904</v>
       </c>
       <c r="G53">
-        <v>29.14846724146851</v>
+        <v>29.13345504672514</v>
       </c>
       <c r="H53">
         <v>0</v>
@@ -1704,25 +1701,25 @@
     </row>
     <row r="54" spans="1:8">
       <c r="A54" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B54">
-        <v>4.12317066250721</v>
+        <v>2.861579084470624</v>
       </c>
       <c r="C54">
         <v>0</v>
       </c>
       <c r="D54">
-        <v>5529.254321835419</v>
+        <v>3837.434783856796</v>
       </c>
       <c r="E54">
-        <v>12710874.44705215</v>
+        <v>10860419.76641271</v>
       </c>
       <c r="F54">
         <v>0</v>
       </c>
       <c r="G54">
-        <v>39.40836687458017</v>
+        <v>27.35034943541981</v>
       </c>
       <c r="H54">
         <v>0</v>
@@ -1730,25 +1727,25 @@
     </row>
     <row r="55" spans="1:8">
       <c r="A55" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B55">
-        <v>3.23195128570705</v>
+        <v>2.062938085723566</v>
       </c>
       <c r="C55">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="D55">
-        <v>0</v>
+        <v>2766.441231717017</v>
       </c>
       <c r="E55">
-        <v>0</v>
+        <v>9953691.026075777</v>
       </c>
       <c r="F55">
-        <v>16916025.69007904</v>
+        <v>0</v>
       </c>
       <c r="G55">
-        <v>30.89028624162407</v>
+        <v>19.71711276978855</v>
       </c>
       <c r="H55">
         <v>0</v>
@@ -1756,25 +1753,25 @@
     </row>
     <row r="56" spans="1:8">
       <c r="A56" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B56">
-        <v>2.396206321476239</v>
+        <v>2.055932462779588</v>
       </c>
       <c r="C56">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="D56">
-        <v>3213.360601226066</v>
+        <v>0</v>
       </c>
       <c r="E56">
-        <v>10184126.08078745</v>
+        <v>0</v>
       </c>
       <c r="F56">
-        <v>0</v>
+        <v>16916025.69007904</v>
       </c>
       <c r="G56">
-        <v>22.90241795776231</v>
+        <v>19.65015455200927</v>
       </c>
       <c r="H56">
         <v>0</v>
@@ -1782,27 +1779,53 @@
     </row>
     <row r="57" spans="1:8">
       <c r="A57" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B57">
-        <v>2.386655940203883</v>
+        <v>2.396206321472904</v>
       </c>
       <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>3213.360601221593</v>
+      </c>
+      <c r="E57">
+        <v>10184126.08078262</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>22.90241795773042</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="A58" t="s">
+        <v>107</v>
+      </c>
+      <c r="B58">
+        <v>2.386655940203981</v>
+      </c>
+      <c r="C58">
         <v>12.5</v>
       </c>
-      <c r="D57">
-        <v>0</v>
-      </c>
-      <c r="E57">
-        <v>0</v>
-      </c>
-      <c r="F57">
+      <c r="D58">
+        <v>0</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
+      <c r="F58">
         <v>16916025.69007904</v>
       </c>
-      <c r="G57">
-        <v>22.81113749430842</v>
-      </c>
-      <c r="H57">
+      <c r="G58">
+        <v>22.81113749430935</v>
+      </c>
+      <c r="H58">
         <v>0</v>
       </c>
     </row>
@@ -1813,7 +1836,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R12"/>
+  <dimension ref="A1:R13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1821,58 +1844,58 @@
   <sheetData>
     <row r="1" spans="1:18">
       <c r="A1" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="H1" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>79</v>
-      </c>
       <c r="M1" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="2" spans="1:18">
@@ -1880,31 +1903,31 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C2" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="D2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="E2" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="F2">
-        <v>99.67229930081471</v>
+        <v>99.66674226711908</v>
       </c>
       <c r="G2">
         <v>650</v>
       </c>
       <c r="H2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="I2">
         <v>9.525</v>
       </c>
       <c r="J2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K2">
         <v>8.758481331682836</v>
@@ -1916,19 +1939,19 @@
         <v>21.747985</v>
       </c>
       <c r="N2">
-        <v>8758481.331682835</v>
+        <v>8700000</v>
       </c>
       <c r="O2">
-        <v>8001077.183555533</v>
+        <v>7937245.757136126</v>
       </c>
       <c r="P2">
-        <v>10.08349519487979</v>
+        <v>10.1617277178567</v>
       </c>
       <c r="Q2">
-        <v>0.01645825422760832</v>
+        <v>0.01659087284042128</v>
       </c>
       <c r="R2">
-        <v>22.05364275502789</v>
+        <v>22.1399319385292</v>
       </c>
     </row>
     <row r="3" spans="1:18">
@@ -1936,31 +1959,31 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C3" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="D3" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="E3" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="F3">
-        <v>99.5396404801036</v>
+        <v>99.52346024276191</v>
       </c>
       <c r="G3">
         <v>650</v>
       </c>
       <c r="H3" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="I3">
         <v>9.525</v>
       </c>
       <c r="J3" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K3">
         <v>8.758481331682836</v>
@@ -1975,16 +1998,16 @@
         <v>8758481.331682835</v>
       </c>
       <c r="O3">
-        <v>8654504.68373259</v>
+        <v>8654538.016343614</v>
       </c>
       <c r="P3">
-        <v>9.328817714401936</v>
+        <v>9.327262945086762</v>
       </c>
       <c r="Q3">
-        <v>0.01518080864975091</v>
+        <v>0.01517827626857461</v>
       </c>
       <c r="R3">
-        <v>21.22662660991789</v>
+        <v>21.22658686015074</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -1992,31 +2015,31 @@
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C4" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="D4" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E4" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="F4">
-        <v>99.53963978220762</v>
+        <v>99.523459930914</v>
       </c>
       <c r="G4">
         <v>650</v>
       </c>
       <c r="H4" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="I4">
         <v>9.525</v>
       </c>
       <c r="J4" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K4">
         <v>8.758481331682836</v>
@@ -2028,19 +2051,19 @@
         <v>18.64113</v>
       </c>
       <c r="N4">
-        <v>8654504.68373259</v>
+        <v>8654538.016343614</v>
       </c>
       <c r="O4">
-        <v>8003131.503467089</v>
+        <v>8003383.294531522</v>
       </c>
       <c r="P4">
-        <v>10.06738385232609</v>
+        <v>10.06543496853964</v>
       </c>
       <c r="Q4">
-        <v>0.01643180043454988</v>
+        <v>0.01642860027561142</v>
       </c>
       <c r="R4">
-        <v>22.05088300616905</v>
+        <v>22.05054482694615</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -2048,31 +2071,31 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C5" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="D5" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="E5" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="F5">
-        <v>99.40848399392921</v>
+        <v>99.39237756840434</v>
       </c>
       <c r="G5">
         <v>650</v>
       </c>
       <c r="H5" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="I5">
         <v>9.525</v>
       </c>
       <c r="J5" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K5">
         <v>8.758481331682836</v>
@@ -2087,16 +2110,16 @@
         <v>8758481.331682835</v>
       </c>
       <c r="O5">
-        <v>8083578.939417392</v>
+        <v>8083802.145601097</v>
       </c>
       <c r="P5">
-        <v>9.956560985311121</v>
+        <v>9.954680125129878</v>
       </c>
       <c r="Q5">
-        <v>0.01624485099313946</v>
+        <v>0.01624176543274516</v>
       </c>
       <c r="R5">
-        <v>21.9436485808526</v>
+        <v>21.94335330618835</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -2104,55 +2127,55 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C6" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="D6" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="E6" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="F6">
-        <v>81.75015387587436</v>
+        <v>81.73404747138561</v>
       </c>
       <c r="G6">
         <v>650</v>
       </c>
       <c r="H6" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="I6">
         <v>9.525</v>
       </c>
       <c r="J6" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K6">
         <v>8.758481331682836</v>
       </c>
       <c r="L6">
-        <v>33.5</v>
+        <v>11.83333333333334</v>
       </c>
       <c r="M6">
-        <v>20.8159285</v>
+        <v>7.35289016666667</v>
       </c>
       <c r="N6">
-        <v>8083578.939417392</v>
+        <v>8083802.145601097</v>
       </c>
       <c r="O6">
-        <v>7557678.225644372</v>
+        <v>7902013.050665035</v>
       </c>
       <c r="P6">
-        <v>8.743308212911113</v>
+        <v>8.369664460519163</v>
       </c>
       <c r="Q6">
-        <v>0.01430050202618776</v>
+        <v>0.0136672478332225</v>
       </c>
       <c r="R6">
-        <v>22.67563667204633</v>
+        <v>22.18801238189763</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -2160,55 +2183,55 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C7" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="D7" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="E7" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="F7">
-        <v>81.57288971318265</v>
+        <v>81.61102015751277</v>
       </c>
       <c r="G7">
         <v>650</v>
       </c>
       <c r="H7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="I7">
         <v>9.525</v>
       </c>
       <c r="J7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K7">
         <v>8.758481331682836</v>
       </c>
       <c r="L7">
-        <v>15</v>
+        <v>36.66666666666666</v>
       </c>
       <c r="M7">
-        <v>9.320565</v>
+        <v>22.78360333333333</v>
       </c>
       <c r="N7">
         <v>8758481.331682835</v>
       </c>
       <c r="O7">
-        <v>8545983.161642604</v>
+        <v>8229133.291143322</v>
       </c>
       <c r="P7">
-        <v>7.739383384696563</v>
+        <v>8.03309168174574</v>
       </c>
       <c r="Q7">
-        <v>0.0126005463872087</v>
+        <v>0.01309775599899329</v>
       </c>
       <c r="R7">
-        <v>21.35729016548758</v>
+        <v>21.75368570381583</v>
       </c>
     </row>
     <row r="8" spans="1:18">
@@ -2216,111 +2239,111 @@
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C8" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="D8" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="E8" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="F8">
-        <v>81.57288971244945</v>
+        <v>81.61102015628941</v>
       </c>
       <c r="G8">
         <v>650</v>
       </c>
       <c r="H8" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="I8">
         <v>9.525</v>
       </c>
       <c r="J8" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K8">
         <v>8.758481331682836</v>
       </c>
       <c r="L8">
-        <v>50</v>
+        <v>6.666666666666671</v>
       </c>
       <c r="M8">
-        <v>31.06855</v>
+        <v>4.142473333333336</v>
       </c>
       <c r="N8">
-        <v>8545983.161642604</v>
+        <v>8229133.291143322</v>
       </c>
       <c r="O8">
-        <v>7797121.82838105</v>
+        <v>8129285.872847885</v>
       </c>
       <c r="P8">
-        <v>8.462758103486768</v>
+        <v>8.12920806190739</v>
       </c>
       <c r="Q8">
-        <v>0.01382604326329669</v>
+        <v>0.01326058534537721</v>
       </c>
       <c r="R8">
-        <v>22.33309593010011</v>
+        <v>21.8834407447092</v>
       </c>
     </row>
     <row r="9" spans="1:18">
       <c r="A9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C9" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="D9" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E9" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="F9">
-        <v>81.43394182416004</v>
+        <v>81.52233035972208</v>
       </c>
       <c r="G9">
         <v>650</v>
       </c>
       <c r="H9" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="I9">
         <v>9.525</v>
       </c>
       <c r="J9" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K9">
         <v>8.758481331682836</v>
       </c>
       <c r="L9">
-        <v>50</v>
+        <v>43.33333333333333</v>
       </c>
       <c r="M9">
-        <v>31.06855</v>
+        <v>26.92607666666666</v>
       </c>
       <c r="N9">
         <v>8758481.331682835</v>
       </c>
       <c r="O9">
-        <v>8031465.407790559</v>
+        <v>8130674.597847262</v>
       </c>
       <c r="P9">
-        <v>8.207848527751704</v>
+        <v>8.119022133536964</v>
       </c>
       <c r="Q9">
-        <v>0.01339493754562473</v>
+        <v>0.01324388468680108</v>
       </c>
       <c r="R9">
-        <v>22.01292882814018</v>
+        <v>21.88161947863751</v>
       </c>
     </row>
     <row r="10" spans="1:18">
@@ -2328,31 +2351,31 @@
         <v>2</v>
       </c>
       <c r="B10" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C10" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="D10" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="E10" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="F10">
-        <v>81.33092425479404</v>
+        <v>81.43394182397731</v>
       </c>
       <c r="G10">
         <v>650</v>
       </c>
       <c r="H10" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="I10">
         <v>9.525</v>
       </c>
       <c r="J10" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K10">
         <v>8.758481331682836</v>
@@ -2367,48 +2390,48 @@
         <v>8758481.331682835</v>
       </c>
       <c r="O10">
-        <v>8033342.064214922</v>
+        <v>8031465.40779146</v>
       </c>
       <c r="P10">
-        <v>8.195598404440208</v>
+        <v>8.207848527684437</v>
       </c>
       <c r="Q10">
-        <v>0.01337482921141107</v>
+        <v>0.0133949375455149</v>
       </c>
       <c r="R10">
-        <v>22.01042215650102</v>
+        <v>22.01292882813898</v>
       </c>
     </row>
     <row r="11" spans="1:18">
       <c r="A11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B11" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C11" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="D11" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="E11" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="F11">
-        <v>81.2283172750851</v>
+        <v>81.3309242547929</v>
       </c>
       <c r="G11">
         <v>650</v>
       </c>
       <c r="H11" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="I11">
         <v>9.525</v>
       </c>
       <c r="J11" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K11">
         <v>8.758481331682836</v>
@@ -2423,16 +2446,16 @@
         <v>8758481.331682835</v>
       </c>
       <c r="O11">
-        <v>8035208.523624305</v>
+        <v>8033342.064214927</v>
       </c>
       <c r="P11">
-        <v>8.183405371851514</v>
+        <v>8.195598404439787</v>
       </c>
       <c r="Q11">
-        <v>0.01335481503530613</v>
+        <v>0.01337482921141039</v>
       </c>
       <c r="R11">
-        <v>22.00792998580285</v>
+        <v>22.010422156501</v>
       </c>
     </row>
     <row r="12" spans="1:18">
@@ -2440,31 +2463,31 @@
         <v>3</v>
       </c>
       <c r="B12" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C12" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="D12" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="E12" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="F12">
-        <v>81.22831727508513</v>
+        <v>81.22831727508515</v>
       </c>
       <c r="G12">
         <v>650</v>
       </c>
       <c r="H12" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="I12">
         <v>9.525</v>
       </c>
       <c r="J12" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K12">
         <v>8.758481331682836</v>
@@ -2476,18 +2499,74 @@
         <v>31.06855</v>
       </c>
       <c r="N12">
+        <v>8758481.331682835</v>
+      </c>
+      <c r="O12">
         <v>8035208.523624305</v>
       </c>
-      <c r="O12">
+      <c r="P12">
+        <v>8.183405371851514</v>
+      </c>
+      <c r="Q12">
+        <v>0.01335481503530613</v>
+      </c>
+      <c r="R12">
+        <v>22.00792998580285</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
+      <c r="A13">
+        <v>3</v>
+      </c>
+      <c r="B13" t="s">
+        <v>135</v>
+      </c>
+      <c r="C13" t="s">
+        <v>147</v>
+      </c>
+      <c r="D13" t="s">
+        <v>155</v>
+      </c>
+      <c r="E13" t="s">
+        <v>156</v>
+      </c>
+      <c r="F13">
+        <v>81.22831727508513</v>
+      </c>
+      <c r="G13">
+        <v>650</v>
+      </c>
+      <c r="H13" t="s">
+        <v>85</v>
+      </c>
+      <c r="I13">
+        <v>9.525</v>
+      </c>
+      <c r="J13" t="s">
+        <v>84</v>
+      </c>
+      <c r="K13">
+        <v>8.758481331682836</v>
+      </c>
+      <c r="L13">
+        <v>50</v>
+      </c>
+      <c r="M13">
+        <v>31.06855</v>
+      </c>
+      <c r="N13">
+        <v>8035208.523624305</v>
+      </c>
+      <c r="O13">
         <v>7242028.792560505</v>
       </c>
-      <c r="P12">
-        <v>9.057192268824174</v>
-      </c>
-      <c r="Q12">
-        <v>0.01483618334147201</v>
-      </c>
-      <c r="R12">
+      <c r="P13">
+        <v>9.057192268824176</v>
+      </c>
+      <c r="Q13">
+        <v>0.01483618334147202</v>
+      </c>
+      <c r="R13">
         <v>23.15308983836517</v>
       </c>
     </row>
@@ -2506,96 +2585,99 @@
   <sheetData>
     <row r="1" spans="1:18">
       <c r="A1" s="2" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
     </row>
     <row r="2" spans="1:18">
+      <c r="A2">
+        <v>0</v>
+      </c>
       <c r="B2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C2" t="s">
-        <v>164</v>
+        <v>148</v>
       </c>
       <c r="D2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="E2" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>21.747985</v>
       </c>
       <c r="H2">
-        <v>1.006721992147452</v>
+        <v>1.103466063628981</v>
       </c>
       <c r="I2">
-        <v>2.146686779229829</v>
+        <v>31.89235885005626</v>
       </c>
       <c r="J2">
-        <v>0.2246009325350105</v>
+        <v>3.336794919393752</v>
       </c>
       <c r="K2">
-        <v>301.1943425480998</v>
+        <v>4474.70872280541</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.2246009325350105</v>
+        <v>3.336794919393752</v>
       </c>
       <c r="N2">
         <v>0.78</v>
@@ -2604,54 +2686,51 @@
         <v>0.357</v>
       </c>
       <c r="P2">
-        <v>9953691.026075777</v>
+        <v>11554520.13345122</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
       <c r="R2">
-        <v>9953691.026075777</v>
+        <v>11554520.13345122</v>
       </c>
     </row>
     <row r="3" spans="1:18">
-      <c r="A3">
-        <v>0</v>
-      </c>
       <c r="B3" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C3" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="D3" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="E3" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="F3">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="G3">
-        <v>21.747985</v>
+        <v>43.49597</v>
       </c>
       <c r="H3">
-        <v>1.094662772368198</v>
+        <v>1.094347354033044</v>
       </c>
       <c r="I3">
-        <v>29.2710146759782</v>
+        <v>29.13345504672514</v>
       </c>
       <c r="J3">
-        <v>3.062532110450391</v>
+        <v>3.048139688925118</v>
       </c>
       <c r="K3">
-        <v>4106.916810756184</v>
+        <v>4087.616285642361</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>3.062532110450391</v>
+        <v>12.5</v>
       </c>
       <c r="N3">
         <v>0.78</v>
@@ -2660,51 +2739,54 @@
         <v>0.357</v>
       </c>
       <c r="P3">
-        <v>11153499.94850771</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>16916025.69007904</v>
       </c>
       <c r="R3">
-        <v>11153499.94850771</v>
+        <v>16916025.69007904</v>
       </c>
     </row>
     <row r="4" spans="1:18">
+      <c r="A4">
+        <v>1</v>
+      </c>
       <c r="B4" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C4" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="D4" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="E4" t="s">
-        <v>151</v>
+        <v>169</v>
       </c>
       <c r="F4">
-        <v>70</v>
+        <v>113.3333333333333</v>
       </c>
       <c r="G4">
-        <v>43.49597</v>
+        <v>70.42204666666667</v>
       </c>
       <c r="H4">
-        <v>1.094381783916523</v>
+        <v>1.108386087890062</v>
       </c>
       <c r="I4">
-        <v>29.14846724146851</v>
+        <v>27.35034943541981</v>
       </c>
       <c r="J4">
-        <v>3.04971036657189</v>
+        <v>2.861579084470624</v>
       </c>
       <c r="K4">
-        <v>4089.722595780236</v>
+        <v>3837.434783856796</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>12.5</v>
+        <v>2.861579084470624</v>
       </c>
       <c r="N4">
         <v>0.78</v>
@@ -2713,13 +2795,13 @@
         <v>0.357</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>10860419.76641271</v>
       </c>
       <c r="Q4">
-        <v>16916025.69007904</v>
+        <v>0</v>
       </c>
       <c r="R4">
-        <v>16916025.69007904</v>
+        <v>10860419.76641271</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -2727,40 +2809,40 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C5" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="D5" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="E5" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="F5">
-        <v>135</v>
+        <v>156.6666666666667</v>
       </c>
       <c r="G5">
-        <v>83.885085</v>
+        <v>97.34812333333335</v>
       </c>
       <c r="H5">
-        <v>1.158885185395159</v>
+        <v>1.077398613934403</v>
       </c>
       <c r="I5">
-        <v>39.40836687458017</v>
+        <v>19.71711276978855</v>
       </c>
       <c r="J5">
-        <v>4.12317066250721</v>
+        <v>2.062938085723566</v>
       </c>
       <c r="K5">
-        <v>5529.254321835419</v>
+        <v>2766.441231717017</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>4.12317066250721</v>
+        <v>2.062938085723566</v>
       </c>
       <c r="N5">
         <v>0.78</v>
@@ -2769,27 +2851,27 @@
         <v>0.357</v>
       </c>
       <c r="P5">
-        <v>12710874.44705215</v>
+        <v>9953691.026075777</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
       <c r="R5">
-        <v>12710874.44705215</v>
+        <v>9953691.026075777</v>
       </c>
     </row>
     <row r="6" spans="1:18">
       <c r="B6" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C6" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="D6" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="E6" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="F6">
         <v>200</v>
@@ -2798,16 +2880,16 @@
         <v>124.2742</v>
       </c>
       <c r="H6">
-        <v>1.123296714411014</v>
+        <v>1.07721459348549</v>
       </c>
       <c r="I6">
-        <v>30.89028624162407</v>
+        <v>19.65015455200927</v>
       </c>
       <c r="J6">
-        <v>3.23195128570705</v>
+        <v>2.055932462779588</v>
       </c>
       <c r="K6">
-        <v>4334.111313158868</v>
+        <v>2757.046551236683</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -2836,16 +2918,16 @@
         <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C7" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="D7" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="E7" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="F7">
         <v>250</v>
@@ -2854,22 +2936,22 @@
         <v>155.34275</v>
       </c>
       <c r="H7">
-        <v>1.090520955638689</v>
+        <v>1.090520955638567</v>
       </c>
       <c r="I7">
-        <v>22.90241795776231</v>
+        <v>22.90241795773042</v>
       </c>
       <c r="J7">
-        <v>2.396206321476239</v>
+        <v>2.396206321472904</v>
       </c>
       <c r="K7">
-        <v>3213.360601226066</v>
+        <v>3213.360601221593</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>2.396206321476239</v>
+        <v>2.396206321472904</v>
       </c>
       <c r="N7">
         <v>0.78</v>
@@ -2878,27 +2960,27 @@
         <v>0.357</v>
       </c>
       <c r="P7">
-        <v>10184126.08078745</v>
+        <v>10184126.08078262</v>
       </c>
       <c r="Q7">
         <v>0</v>
       </c>
       <c r="R7">
-        <v>10184126.08078745</v>
+        <v>10184126.08078262</v>
       </c>
     </row>
     <row r="8" spans="1:18">
       <c r="B8" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C8" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="D8" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="E8" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="F8">
         <v>300</v>
@@ -2907,16 +2989,16 @@
         <v>186.4113</v>
       </c>
       <c r="H8">
-        <v>1.090266200750756</v>
+        <v>1.090266200750755</v>
       </c>
       <c r="I8">
-        <v>22.81113749430842</v>
+        <v>22.81113749430935</v>
       </c>
       <c r="J8">
-        <v>2.386655940203883</v>
+        <v>2.386655940203981</v>
       </c>
       <c r="K8">
-        <v>3200.553348932211</v>
+        <v>3200.553348932342</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -2947,7 +3029,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2955,15 +3037,15 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>164</v>
+        <v>136</v>
       </c>
       <c r="B2">
         <v>8700000</v>
@@ -2971,145 +3053,153 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>133</v>
+        <v>148</v>
       </c>
       <c r="B3">
-        <v>8758481.331682835</v>
+        <v>7937245.757136126</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="B4">
-        <v>8001077.183555533</v>
+        <v>8758481.331682835</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="B5">
-        <v>8758481.331682835</v>
+        <v>8654538.016343614</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="B6">
-        <v>8654504.68373259</v>
+        <v>8003383.294531522</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="B7">
-        <v>8003131.503467089</v>
+        <v>8758481.331682835</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B8">
-        <v>8758481.331682835</v>
+        <v>8083802.145601097</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="B9">
-        <v>8083578.939417392</v>
+        <v>7902013.050665035</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="B10">
-        <v>7557678.225644372</v>
+        <v>8758481.331682835</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="B11">
-        <v>8758481.331682835</v>
+        <v>8229133.291143322</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="B12">
-        <v>8545983.161642604</v>
+        <v>8129285.872847885</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B13">
-        <v>7797121.82838105</v>
+        <v>8758481.331682835</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="B14">
-        <v>8758481.331682835</v>
+        <v>8130674.597847262</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B15">
-        <v>8031465.407790559</v>
+        <v>8758481.331682835</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="B16">
-        <v>8758481.331682835</v>
+        <v>8031465.40779146</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B17">
-        <v>8033342.064214922</v>
+        <v>8758481.331682835</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="B18">
-        <v>8758481.331682835</v>
+        <v>8033342.064214927</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B19">
-        <v>8035208.523624305</v>
+        <v>8758481.331682835</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B20">
+        <v>8035208.523624305</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>155</v>
+      </c>
+      <c r="B21">
         <v>7242028.792560505</v>
       </c>
     </row>
@@ -3128,36 +3218,36 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B2">
         <v>17.65832997587177</v>
       </c>
       <c r="C2">
-        <v>17.65833011805485</v>
+        <v>17.65833009701873</v>
       </c>
       <c r="D2">
         <v>65.15454188318284</v>
@@ -3166,15 +3256,15 @@
         <v>1150.5204</v>
       </c>
       <c r="F2">
-        <v>1150.520409263874</v>
+        <v>1150.520407893275</v>
       </c>
       <c r="G2">
-        <v>8.051898638165635E-07</v>
+        <v>6.860612989928433E-07</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="B3">
         <v>45.91165732334162</v>
@@ -3197,7 +3287,7 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="B4">
         <v>35.31665995174353</v>

--- a/examples/wangetal2018/out/ResultFiles/AC_0.5_b.xlsx
+++ b/examples/wangetal2018/out/ResultFiles/AC_0.5_b.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="212">
   <si>
     <t xml:space="preserve">
 ---------DISCLAIMER---------
@@ -399,76 +399,172 @@
     <t>Erosional velocity (m/s)</t>
   </si>
   <si>
+    <t>PI01_0</t>
+  </si>
+  <si>
+    <t>PI01_1</t>
+  </si>
+  <si>
     <t>PI01_pre_C_0_0</t>
   </si>
   <si>
     <t>PI01_remaining</t>
   </si>
   <si>
+    <t>PI02_0</t>
+  </si>
+  <si>
     <t>PI02</t>
   </si>
   <si>
+    <t>PI03_0</t>
+  </si>
+  <si>
     <t>PI03</t>
   </si>
   <si>
-    <t>PI04_pre_C_1_0</t>
-  </si>
-  <si>
-    <t>PI04_remaining</t>
-  </si>
-  <si>
-    <t>PI05_pre_C_1_1</t>
-  </si>
-  <si>
-    <t>PI05_remaining</t>
+    <t>PI04_0_pre_C_1_0</t>
+  </si>
+  <si>
+    <t>PI04_0_remaining</t>
+  </si>
+  <si>
+    <t>PI04_1</t>
+  </si>
+  <si>
+    <t>PI04</t>
+  </si>
+  <si>
+    <t>PI05_0_pre_C_1_1</t>
+  </si>
+  <si>
+    <t>PI05_0_remaining</t>
+  </si>
+  <si>
+    <t>PI05_1</t>
+  </si>
+  <si>
+    <t>PI05</t>
+  </si>
+  <si>
+    <t>PI06_0</t>
+  </si>
+  <si>
+    <t>PI06_1</t>
   </si>
   <si>
     <t>PI06</t>
   </si>
   <si>
-    <t>PI07_remaining</t>
+    <t>PI07_0_remaining</t>
+  </si>
+  <si>
+    <t>PI07_1</t>
+  </si>
+  <si>
+    <t>PI07</t>
+  </si>
+  <si>
+    <t>PI08_0</t>
+  </si>
+  <si>
+    <t>PI08_1</t>
   </si>
   <si>
     <t>PI08</t>
   </si>
   <si>
+    <t>PI09_0</t>
+  </si>
+  <si>
+    <t>PI09_1</t>
+  </si>
+  <si>
     <t>PI09</t>
   </si>
   <si>
     <t>N01</t>
   </si>
   <si>
+    <t>N01_0</t>
+  </si>
+  <si>
+    <t>N01_1</t>
+  </si>
+  <si>
     <t>N_post_C_0_0</t>
   </si>
   <si>
     <t>N02</t>
   </si>
   <si>
+    <t>N02_0</t>
+  </si>
+  <si>
     <t>N03_C</t>
   </si>
   <si>
+    <t>N03_C_0</t>
+  </si>
+  <si>
     <t>N04</t>
   </si>
   <si>
     <t>N_post_C_1_0</t>
   </si>
   <si>
+    <t>N04_0</t>
+  </si>
+  <si>
+    <t>N04_1</t>
+  </si>
+  <si>
     <t>N05</t>
   </si>
   <si>
     <t>N_post_C_1_1</t>
   </si>
   <si>
+    <t>N05_0</t>
+  </si>
+  <si>
+    <t>N05_1</t>
+  </si>
+  <si>
     <t>N06_C</t>
   </si>
   <si>
+    <t>N06_C_0</t>
+  </si>
+  <si>
+    <t>N06_C_1</t>
+  </si>
+  <si>
     <t>N_post_C_2_0</t>
   </si>
   <si>
+    <t>N07_0</t>
+  </si>
+  <si>
+    <t>N07_1</t>
+  </si>
+  <si>
     <t>N08_C</t>
   </si>
   <si>
+    <t>N08_C_0</t>
+  </si>
+  <si>
+    <t>N08_C_1</t>
+  </si>
+  <si>
     <t>N09</t>
+  </si>
+  <si>
+    <t>N09_0</t>
+  </si>
+  <si>
+    <t>N09_1</t>
   </si>
   <si>
     <t>N_pre_C_0_0</t>
@@ -1186,7 +1282,7 @@
         <v>37</v>
       </c>
       <c r="B2">
-        <v>0.2300600568206976</v>
+        <v>0.2338466015361861</v>
       </c>
       <c r="C2" t="s">
         <v>69</v>
@@ -1208,7 +1304,7 @@
         <v>39</v>
       </c>
       <c r="B4">
-        <v>0.02653096406713577</v>
+        <v>0.02679288153103254</v>
       </c>
       <c r="C4" t="s">
         <v>69</v>
@@ -1219,7 +1315,7 @@
         <v>40</v>
       </c>
       <c r="B5">
-        <v>0.03164061517833026</v>
+        <v>0.03166759958247593</v>
       </c>
       <c r="C5" t="s">
         <v>69</v>
@@ -1241,7 +1337,7 @@
         <v>42</v>
       </c>
       <c r="B7">
-        <v>0.006538325611274064</v>
+        <v>0.006543901761413251</v>
       </c>
       <c r="C7" t="s">
         <v>69</v>
@@ -1252,7 +1348,7 @@
         <v>43</v>
       </c>
       <c r="B8">
-        <v>0.01550113456217688</v>
+        <v>0.01551435456050449</v>
       </c>
       <c r="C8" t="s">
         <v>69</v>
@@ -1274,7 +1370,7 @@
         <v>45</v>
       </c>
       <c r="B10">
-        <v>0.01701801172198347</v>
+        <v>0.01701801172198348</v>
       </c>
       <c r="C10" t="s">
         <v>69</v>
@@ -1285,7 +1381,7 @@
         <v>46</v>
       </c>
       <c r="B11">
-        <v>0.1068894246116708</v>
+        <v>0.1102274059528919</v>
       </c>
       <c r="C11" t="s">
         <v>69</v>
@@ -1329,7 +1425,7 @@
         <v>50</v>
       </c>
       <c r="B15">
-        <v>0.003066552154942942</v>
+        <v>0.003091196694189028</v>
       </c>
       <c r="C15" t="s">
         <v>69</v>
@@ -1340,7 +1436,7 @@
         <v>51</v>
       </c>
       <c r="B16">
-        <v>0.02192070643429869</v>
+        <v>0.02201607113791239</v>
       </c>
       <c r="C16" t="s">
         <v>69</v>
@@ -1351,7 +1447,7 @@
         <v>52</v>
       </c>
       <c r="B17">
-        <v>0.0009543224788847288</v>
+        <v>0.0009751785937831068</v>
       </c>
       <c r="C17" t="s">
         <v>69</v>
@@ -1447,7 +1543,7 @@
         <v>60</v>
       </c>
       <c r="B26">
-        <v>14291.94533960082</v>
+        <v>14731.96533814537</v>
       </c>
       <c r="C26" t="s">
         <v>75</v>
@@ -1458,7 +1554,7 @@
         <v>61</v>
       </c>
       <c r="B27">
-        <v>4162.967666544931</v>
+        <v>4292.970315969958</v>
       </c>
       <c r="C27" t="s">
         <v>71</v>
@@ -1469,7 +1565,7 @@
         <v>61</v>
       </c>
       <c r="B28">
-        <v>173.4569861060388</v>
+        <v>178.8737631654149</v>
       </c>
       <c r="C28" t="s">
         <v>72</v>
@@ -1502,7 +1598,7 @@
         <v>64</v>
       </c>
       <c r="B31">
-        <v>42552757.00672232</v>
+        <v>42936226.13641323</v>
       </c>
       <c r="C31" t="s">
         <v>77</v>
@@ -1576,7 +1672,7 @@
         <v>650</v>
       </c>
       <c r="B41">
-        <v>400</v>
+        <v>400.0000000000002</v>
       </c>
       <c r="C41" t="s">
         <v>84</v>
@@ -1652,22 +1748,22 @@
         <v>101</v>
       </c>
       <c r="B52">
-        <v>3.336794919393752</v>
+        <v>3.437294688060416</v>
       </c>
       <c r="C52">
         <v>0</v>
       </c>
       <c r="D52">
-        <v>4474.70872280541</v>
+        <v>4609.480922582779</v>
       </c>
       <c r="E52">
-        <v>11554520.13345122</v>
+        <v>11701763.49018096</v>
       </c>
       <c r="F52">
         <v>0</v>
       </c>
       <c r="G52">
-        <v>31.89235885005626</v>
+        <v>32.85291374302739</v>
       </c>
       <c r="H52">
         <v>0</v>
@@ -1678,7 +1774,7 @@
         <v>102</v>
       </c>
       <c r="B53">
-        <v>3.048139688925118</v>
+        <v>3.146061203317199</v>
       </c>
       <c r="C53">
         <v>12.5</v>
@@ -1693,7 +1789,7 @@
         <v>16916025.69007904</v>
       </c>
       <c r="G53">
-        <v>29.13345504672514</v>
+        <v>30.06936754706561</v>
       </c>
       <c r="H53">
         <v>0</v>
@@ -1704,22 +1800,22 @@
         <v>103</v>
       </c>
       <c r="B54">
-        <v>2.861579084470624</v>
+        <v>2.947404750452124</v>
       </c>
       <c r="C54">
         <v>0</v>
       </c>
       <c r="D54">
-        <v>3837.434783856796</v>
+        <v>3952.528718451308</v>
       </c>
       <c r="E54">
-        <v>10860419.76641271</v>
+        <v>10985514.88815084</v>
       </c>
       <c r="F54">
         <v>0</v>
       </c>
       <c r="G54">
-        <v>27.35034943541981</v>
+        <v>28.1706524519817</v>
       </c>
       <c r="H54">
         <v>0</v>
@@ -1730,13 +1826,13 @@
         <v>104</v>
       </c>
       <c r="B55">
-        <v>2.062938085723566</v>
+        <v>2.128103914093165</v>
       </c>
       <c r="C55">
         <v>0</v>
       </c>
       <c r="D55">
-        <v>2766.441231717017</v>
+        <v>2853.829910877217</v>
       </c>
       <c r="E55">
         <v>9953691.026075777</v>
@@ -1745,7 +1841,7 @@
         <v>0</v>
       </c>
       <c r="G55">
-        <v>19.71711276978855</v>
+        <v>20.33995355962709</v>
       </c>
       <c r="H55">
         <v>0</v>
@@ -1756,7 +1852,7 @@
         <v>105</v>
       </c>
       <c r="B56">
-        <v>2.055932462779588</v>
+        <v>2.12058878377824</v>
       </c>
       <c r="C56">
         <v>12.5</v>
@@ -1771,7 +1867,7 @@
         <v>16916025.69007904</v>
       </c>
       <c r="G56">
-        <v>19.65015455200927</v>
+        <v>20.26812558140298</v>
       </c>
       <c r="H56">
         <v>0</v>
@@ -1782,22 +1878,22 @@
         <v>106</v>
       </c>
       <c r="B57">
-        <v>2.396206321472904</v>
+        <v>2.472838426148799</v>
       </c>
       <c r="C57">
         <v>0</v>
       </c>
       <c r="D57">
-        <v>3213.360601221593</v>
+        <v>3316.125786234062</v>
       </c>
       <c r="E57">
-        <v>10184126.08078262</v>
+        <v>10295256.73200565</v>
       </c>
       <c r="F57">
         <v>0</v>
       </c>
       <c r="G57">
-        <v>22.90241795773042</v>
+        <v>23.63485091834005</v>
       </c>
       <c r="H57">
         <v>0</v>
@@ -1808,7 +1904,7 @@
         <v>107</v>
       </c>
       <c r="B58">
-        <v>2.386655940203981</v>
+        <v>2.462694696875903</v>
       </c>
       <c r="C58">
         <v>12.5</v>
@@ -1823,7 +1919,7 @@
         <v>16916025.69007904</v>
       </c>
       <c r="G58">
-        <v>22.81113749430935</v>
+        <v>23.53789936397009</v>
       </c>
       <c r="H58">
         <v>0</v>
@@ -1836,7 +1932,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R13"/>
+  <dimension ref="A1:R29"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1906,16 +2002,16 @@
         <v>124</v>
       </c>
       <c r="C2" t="s">
-        <v>136</v>
+        <v>152</v>
       </c>
       <c r="D2" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="E2" t="s">
-        <v>156</v>
+        <v>188</v>
       </c>
       <c r="F2">
-        <v>99.66674226711908</v>
+        <v>99.69069604969901</v>
       </c>
       <c r="G2">
         <v>650</v>
@@ -1933,25 +2029,25 @@
         <v>8.758481331682836</v>
       </c>
       <c r="L2">
-        <v>35</v>
+        <v>13.33333333333333</v>
       </c>
       <c r="M2">
-        <v>21.747985</v>
+        <v>8.284946666666665</v>
       </c>
       <c r="N2">
         <v>8700000</v>
       </c>
       <c r="O2">
-        <v>7937245.757136126</v>
+        <v>8413873.687126147</v>
       </c>
       <c r="P2">
-        <v>10.1617277178567</v>
+        <v>9.43299004975235</v>
       </c>
       <c r="Q2">
-        <v>0.01659087284042128</v>
+        <v>0.01527670795431803</v>
       </c>
       <c r="R2">
-        <v>22.1399319385292</v>
+        <v>21.64727926182652</v>
       </c>
     </row>
     <row r="3" spans="1:18">
@@ -1962,16 +2058,16 @@
         <v>125</v>
       </c>
       <c r="C3" t="s">
-        <v>137</v>
+        <v>153</v>
       </c>
       <c r="D3" t="s">
-        <v>138</v>
+        <v>154</v>
       </c>
       <c r="E3" t="s">
-        <v>156</v>
+        <v>188</v>
       </c>
       <c r="F3">
-        <v>99.52346024276191</v>
+        <v>99.69069888547529</v>
       </c>
       <c r="G3">
         <v>650</v>
@@ -1989,25 +2085,25 @@
         <v>8.758481331682836</v>
       </c>
       <c r="L3">
-        <v>5</v>
+        <v>13.33333333333333</v>
       </c>
       <c r="M3">
-        <v>3.106855</v>
+        <v>8.284946666666665</v>
       </c>
       <c r="N3">
-        <v>8758481.331682835</v>
+        <v>8413873.687126147</v>
       </c>
       <c r="O3">
-        <v>8654538.016343614</v>
+        <v>8117821.877883612</v>
       </c>
       <c r="P3">
-        <v>9.327262945086762</v>
+        <v>9.440990829601999</v>
       </c>
       <c r="Q3">
-        <v>0.01517827626857461</v>
+        <v>0.01530710946425028</v>
       </c>
       <c r="R3">
-        <v>21.22658686015074</v>
+        <v>22.03312618787135</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -2018,16 +2114,16 @@
         <v>126</v>
       </c>
       <c r="C4" t="s">
-        <v>138</v>
+        <v>154</v>
       </c>
       <c r="D4" t="s">
-        <v>149</v>
+        <v>180</v>
       </c>
       <c r="E4" t="s">
-        <v>156</v>
+        <v>188</v>
       </c>
       <c r="F4">
-        <v>99.523459930914</v>
+        <v>99.6907008198246</v>
       </c>
       <c r="G4">
         <v>650</v>
@@ -2045,45 +2141,45 @@
         <v>8.758481331682836</v>
       </c>
       <c r="L4">
-        <v>30</v>
+        <v>8.333333333333332</v>
       </c>
       <c r="M4">
-        <v>18.64113</v>
+        <v>5.178091666666666</v>
       </c>
       <c r="N4">
-        <v>8654538.016343614</v>
+        <v>8117821.877883612</v>
       </c>
       <c r="O4">
-        <v>8003383.294531522</v>
+        <v>7927248.201786697</v>
       </c>
       <c r="P4">
-        <v>10.06543496853964</v>
+        <v>9.446001754725705</v>
       </c>
       <c r="Q4">
-        <v>0.01642860027561142</v>
+        <v>0.01532650529641545</v>
       </c>
       <c r="R4">
-        <v>22.05054482694615</v>
+        <v>22.29307486976328</v>
       </c>
     </row>
     <row r="5" spans="1:18">
       <c r="A5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B5" t="s">
         <v>127</v>
       </c>
       <c r="C5" t="s">
-        <v>139</v>
+        <v>155</v>
       </c>
       <c r="D5" t="s">
-        <v>140</v>
+        <v>156</v>
       </c>
       <c r="E5" t="s">
-        <v>156</v>
+        <v>188</v>
       </c>
       <c r="F5">
-        <v>99.39237756840434</v>
+        <v>99.54344211732494</v>
       </c>
       <c r="G5">
         <v>650</v>
@@ -2101,45 +2197,45 @@
         <v>8.758481331682836</v>
       </c>
       <c r="L5">
-        <v>31.5</v>
+        <v>5</v>
       </c>
       <c r="M5">
-        <v>19.5731865</v>
+        <v>3.106855</v>
       </c>
       <c r="N5">
         <v>8758481.331682835</v>
       </c>
       <c r="O5">
-        <v>8083802.145601097</v>
+        <v>8653298.634393794</v>
       </c>
       <c r="P5">
-        <v>9.954680125129878</v>
+        <v>9.338096250750766</v>
       </c>
       <c r="Q5">
-        <v>0.01624176543274516</v>
+        <v>0.01510917120725238</v>
       </c>
       <c r="R5">
-        <v>21.94335330618835</v>
+        <v>21.35004496238852</v>
       </c>
     </row>
     <row r="6" spans="1:18">
       <c r="A6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B6" t="s">
         <v>128</v>
       </c>
       <c r="C6" t="s">
-        <v>140</v>
+        <v>156</v>
       </c>
       <c r="D6" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="E6" t="s">
-        <v>156</v>
+        <v>188</v>
       </c>
       <c r="F6">
-        <v>81.73404747138561</v>
+        <v>99.54344223104995</v>
       </c>
       <c r="G6">
         <v>650</v>
@@ -2157,45 +2253,45 @@
         <v>8.758481331682836</v>
       </c>
       <c r="L6">
-        <v>11.83333333333334</v>
+        <v>15</v>
       </c>
       <c r="M6">
-        <v>7.35289016666667</v>
+        <v>9.320565</v>
       </c>
       <c r="N6">
-        <v>8083802.145601097</v>
+        <v>8653298.634393794</v>
       </c>
       <c r="O6">
-        <v>7902013.050665035</v>
+        <v>8329907.201703677</v>
       </c>
       <c r="P6">
-        <v>8.369664460519163</v>
+        <v>9.346826590431576</v>
       </c>
       <c r="Q6">
-        <v>0.0136672478332225</v>
+        <v>0.015142115325569</v>
       </c>
       <c r="R6">
-        <v>22.18801238189763</v>
+        <v>21.75449781763275</v>
       </c>
     </row>
     <row r="7" spans="1:18">
       <c r="A7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B7" t="s">
         <v>129</v>
       </c>
       <c r="C7" t="s">
-        <v>141</v>
+        <v>157</v>
       </c>
       <c r="D7" t="s">
-        <v>142</v>
+        <v>181</v>
       </c>
       <c r="E7" t="s">
-        <v>156</v>
+        <v>188</v>
       </c>
       <c r="F7">
-        <v>81.61102015751277</v>
+        <v>99.5434423939995</v>
       </c>
       <c r="G7">
         <v>650</v>
@@ -2213,25 +2309,25 @@
         <v>8.758481331682836</v>
       </c>
       <c r="L7">
-        <v>36.66666666666666</v>
+        <v>15</v>
       </c>
       <c r="M7">
-        <v>22.78360333333333</v>
+        <v>9.320565</v>
       </c>
       <c r="N7">
-        <v>8758481.331682835</v>
+        <v>8329907.201703677</v>
       </c>
       <c r="O7">
-        <v>8229133.291143322</v>
+        <v>7993633.143069969</v>
       </c>
       <c r="P7">
-        <v>8.03309168174574</v>
+        <v>9.355581617210204</v>
       </c>
       <c r="Q7">
-        <v>0.01309775599899329</v>
+        <v>0.01517588115919206</v>
       </c>
       <c r="R7">
-        <v>21.75368570381583</v>
+        <v>22.20148243366665</v>
       </c>
     </row>
     <row r="8" spans="1:18">
@@ -2242,16 +2338,16 @@
         <v>130</v>
       </c>
       <c r="C8" t="s">
-        <v>142</v>
+        <v>158</v>
       </c>
       <c r="D8" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="E8" t="s">
-        <v>156</v>
+        <v>188</v>
       </c>
       <c r="F8">
-        <v>81.61102015628941</v>
+        <v>99.40820899327626</v>
       </c>
       <c r="G8">
         <v>650</v>
@@ -2269,25 +2365,25 @@
         <v>8.758481331682836</v>
       </c>
       <c r="L8">
-        <v>6.666666666666671</v>
+        <v>15.75</v>
       </c>
       <c r="M8">
-        <v>4.142473333333336</v>
+        <v>9.786593249999999</v>
       </c>
       <c r="N8">
-        <v>8229133.291143322</v>
+        <v>8758481.331682835</v>
       </c>
       <c r="O8">
-        <v>8129285.872847885</v>
+        <v>8423689.845105235</v>
       </c>
       <c r="P8">
-        <v>8.12920806190739</v>
+        <v>9.350472831072285</v>
       </c>
       <c r="Q8">
-        <v>0.01326058534537721</v>
+        <v>0.01514249562511609</v>
       </c>
       <c r="R8">
-        <v>21.8834407447092</v>
+        <v>21.63484803462068</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -2298,16 +2394,16 @@
         <v>131</v>
       </c>
       <c r="C9" t="s">
-        <v>143</v>
+        <v>159</v>
       </c>
       <c r="D9" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="E9" t="s">
-        <v>156</v>
+        <v>188</v>
       </c>
       <c r="F9">
-        <v>81.52233035972208</v>
+        <v>99.40820900006825</v>
       </c>
       <c r="G9">
         <v>650</v>
@@ -2325,45 +2421,45 @@
         <v>8.758481331682836</v>
       </c>
       <c r="L9">
-        <v>43.33333333333333</v>
+        <v>15.75</v>
       </c>
       <c r="M9">
-        <v>26.92607666666666</v>
+        <v>9.786593249999999</v>
       </c>
       <c r="N9">
-        <v>8758481.331682835</v>
+        <v>8423689.845105235</v>
       </c>
       <c r="O9">
-        <v>8130674.597847262</v>
+        <v>8075240.343752847</v>
       </c>
       <c r="P9">
-        <v>8.119022133536964</v>
+        <v>9.359702363978984</v>
       </c>
       <c r="Q9">
-        <v>0.01324388468680108</v>
+        <v>0.01517778902322432</v>
       </c>
       <c r="R9">
-        <v>21.88161947863751</v>
+        <v>22.09041952223826</v>
       </c>
     </row>
     <row r="10" spans="1:18">
       <c r="A10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B10" t="s">
         <v>132</v>
       </c>
       <c r="C10" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="D10" t="s">
-        <v>153</v>
+        <v>182</v>
       </c>
       <c r="E10" t="s">
-        <v>156</v>
+        <v>188</v>
       </c>
       <c r="F10">
-        <v>81.43394182397731</v>
+        <v>81.74987908492251</v>
       </c>
       <c r="G10">
         <v>650</v>
@@ -2381,45 +2477,45 @@
         <v>8.758481331682836</v>
       </c>
       <c r="L10">
-        <v>50</v>
+        <v>11.83333333333334</v>
       </c>
       <c r="M10">
-        <v>31.06855</v>
+        <v>7.35289016666667</v>
       </c>
       <c r="N10">
-        <v>8758481.331682835</v>
+        <v>8075240.343752847</v>
       </c>
       <c r="O10">
-        <v>8031465.40779146</v>
+        <v>7890878.744625815</v>
       </c>
       <c r="P10">
-        <v>8.207848527684437</v>
+        <v>7.702813547948274</v>
       </c>
       <c r="Q10">
-        <v>0.0133949375455149</v>
+        <v>0.0124998896361287</v>
       </c>
       <c r="R10">
-        <v>22.01292882813898</v>
+        <v>22.34373756210782</v>
       </c>
     </row>
     <row r="11" spans="1:18">
       <c r="A11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B11" t="s">
         <v>133</v>
       </c>
       <c r="C11" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
       <c r="D11" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="E11" t="s">
-        <v>156</v>
+        <v>188</v>
       </c>
       <c r="F11">
-        <v>81.3309242547929</v>
+        <v>81.62316498985172</v>
       </c>
       <c r="G11">
         <v>650</v>
@@ -2437,45 +2533,45 @@
         <v>8.758481331682836</v>
       </c>
       <c r="L11">
-        <v>50</v>
+        <v>4.333333333333329</v>
       </c>
       <c r="M11">
-        <v>31.06855</v>
+        <v>2.692607666666664</v>
       </c>
       <c r="N11">
         <v>8758481.331682835</v>
       </c>
       <c r="O11">
-        <v>8033342.064214927</v>
+        <v>8696839.04869429</v>
       </c>
       <c r="P11">
-        <v>8.195598404439787</v>
+        <v>7.655741046541454</v>
       </c>
       <c r="Q11">
-        <v>0.01337482921141039</v>
+        <v>0.01238501067147943</v>
       </c>
       <c r="R11">
-        <v>22.010422156501</v>
+        <v>21.29738397672895</v>
       </c>
     </row>
     <row r="12" spans="1:18">
       <c r="A12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B12" t="s">
         <v>134</v>
       </c>
       <c r="C12" t="s">
-        <v>146</v>
+        <v>162</v>
       </c>
       <c r="D12" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
       <c r="E12" t="s">
-        <v>156</v>
+        <v>188</v>
       </c>
       <c r="F12">
-        <v>81.22831727508515</v>
+        <v>81.62316498992803</v>
       </c>
       <c r="G12">
         <v>650</v>
@@ -2493,45 +2589,45 @@
         <v>8.758481331682836</v>
       </c>
       <c r="L12">
-        <v>50</v>
+        <v>16.16666666666667</v>
       </c>
       <c r="M12">
-        <v>31.06855</v>
+        <v>10.04549783333334</v>
       </c>
       <c r="N12">
-        <v>8758481.331682835</v>
+        <v>8696839.04869429</v>
       </c>
       <c r="O12">
-        <v>8035208.523624305</v>
+        <v>8462966.932250882</v>
       </c>
       <c r="P12">
-        <v>8.183405371851514</v>
+        <v>7.663453453071625</v>
       </c>
       <c r="Q12">
-        <v>0.01335481503530613</v>
+        <v>0.01240859162410618</v>
       </c>
       <c r="R12">
-        <v>22.00792998580285</v>
+        <v>21.58532078046117</v>
       </c>
     </row>
     <row r="13" spans="1:18">
       <c r="A13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B13" t="s">
         <v>135</v>
       </c>
       <c r="C13" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
       <c r="D13" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="E13" t="s">
-        <v>156</v>
+        <v>188</v>
       </c>
       <c r="F13">
-        <v>81.22831727508513</v>
+        <v>81.62316499006117</v>
       </c>
       <c r="G13">
         <v>650</v>
@@ -2549,25 +2645,921 @@
         <v>8.758481331682836</v>
       </c>
       <c r="L13">
-        <v>50</v>
+        <v>16.16666666666667</v>
       </c>
       <c r="M13">
-        <v>31.06855</v>
+        <v>10.04549783333334</v>
       </c>
       <c r="N13">
-        <v>8035208.523624305</v>
+        <v>8462966.932250882</v>
       </c>
       <c r="O13">
-        <v>7242028.792560505</v>
+        <v>8222545.415538021</v>
       </c>
       <c r="P13">
-        <v>9.057192268824176</v>
+        <v>7.671189351154662</v>
       </c>
       <c r="Q13">
-        <v>0.01483618334147202</v>
+        <v>0.01243269601203564</v>
       </c>
       <c r="R13">
-        <v>23.15308983836517</v>
+        <v>21.89409575857635</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14" t="s">
+        <v>136</v>
+      </c>
+      <c r="C14" t="s">
+        <v>164</v>
+      </c>
+      <c r="D14" t="s">
+        <v>183</v>
+      </c>
+      <c r="E14" t="s">
+        <v>188</v>
+      </c>
+      <c r="F14">
+        <v>81.6231649901295</v>
+      </c>
+      <c r="G14">
+        <v>650</v>
+      </c>
+      <c r="H14" t="s">
+        <v>85</v>
+      </c>
+      <c r="I14">
+        <v>9.525</v>
+      </c>
+      <c r="J14" t="s">
+        <v>84</v>
+      </c>
+      <c r="K14">
+        <v>8.758481331682836</v>
+      </c>
+      <c r="L14">
+        <v>6.666666666666671</v>
+      </c>
+      <c r="M14">
+        <v>4.142473333333336</v>
+      </c>
+      <c r="N14">
+        <v>8222545.415538021</v>
+      </c>
+      <c r="O14">
+        <v>8121358.479458209</v>
+      </c>
+      <c r="P14">
+        <v>7.674386281225481</v>
+      </c>
+      <c r="Q14">
+        <v>0.01244266462466221</v>
+      </c>
+      <c r="R14">
+        <v>22.02838772572116</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="B15" t="s">
+        <v>137</v>
+      </c>
+      <c r="C15" t="s">
+        <v>165</v>
+      </c>
+      <c r="D15" t="s">
+        <v>166</v>
+      </c>
+      <c r="E15" t="s">
+        <v>188</v>
+      </c>
+      <c r="F15">
+        <v>81.53167367628195</v>
+      </c>
+      <c r="G15">
+        <v>650</v>
+      </c>
+      <c r="H15" t="s">
+        <v>85</v>
+      </c>
+      <c r="I15">
+        <v>9.525</v>
+      </c>
+      <c r="J15" t="s">
+        <v>84</v>
+      </c>
+      <c r="K15">
+        <v>8.758481331682836</v>
+      </c>
+      <c r="L15">
+        <v>10</v>
+      </c>
+      <c r="M15">
+        <v>6.21371</v>
+      </c>
+      <c r="N15">
+        <v>8758481.331682835</v>
+      </c>
+      <c r="O15">
+        <v>8615891.687573487</v>
+      </c>
+      <c r="P15">
+        <v>7.657967495026451</v>
+      </c>
+      <c r="Q15">
+        <v>0.0123924555541371</v>
+      </c>
+      <c r="R15">
+        <v>21.39567764541531</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16" t="s">
+        <v>138</v>
+      </c>
+      <c r="C16" t="s">
+        <v>166</v>
+      </c>
+      <c r="D16" t="s">
+        <v>167</v>
+      </c>
+      <c r="E16" t="s">
+        <v>188</v>
+      </c>
+      <c r="F16">
+        <v>81.53167367628342</v>
+      </c>
+      <c r="G16">
+        <v>650</v>
+      </c>
+      <c r="H16" t="s">
+        <v>85</v>
+      </c>
+      <c r="I16">
+        <v>9.525</v>
+      </c>
+      <c r="J16" t="s">
+        <v>84</v>
+      </c>
+      <c r="K16">
+        <v>8.758481331682836</v>
+      </c>
+      <c r="L16">
+        <v>16.66666666666667</v>
+      </c>
+      <c r="M16">
+        <v>10.35618333333334</v>
+      </c>
+      <c r="N16">
+        <v>8615891.687573487</v>
+      </c>
+      <c r="O16">
+        <v>8372928.667971016</v>
+      </c>
+      <c r="P16">
+        <v>7.665943845425256</v>
+      </c>
+      <c r="Q16">
+        <v>0.01241695495143987</v>
+      </c>
+      <c r="R16">
+        <v>21.6993643005018</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17" t="s">
+        <v>139</v>
+      </c>
+      <c r="C17" t="s">
+        <v>167</v>
+      </c>
+      <c r="D17" t="s">
+        <v>184</v>
+      </c>
+      <c r="E17" t="s">
+        <v>188</v>
+      </c>
+      <c r="F17">
+        <v>81.53167367628583</v>
+      </c>
+      <c r="G17">
+        <v>650</v>
+      </c>
+      <c r="H17" t="s">
+        <v>85</v>
+      </c>
+      <c r="I17">
+        <v>9.525</v>
+      </c>
+      <c r="J17" t="s">
+        <v>84</v>
+      </c>
+      <c r="K17">
+        <v>8.758481331682836</v>
+      </c>
+      <c r="L17">
+        <v>16.66666666666667</v>
+      </c>
+      <c r="M17">
+        <v>10.35618333333334</v>
+      </c>
+      <c r="N17">
+        <v>8372928.667971016</v>
+      </c>
+      <c r="O17">
+        <v>8122810.632938321</v>
+      </c>
+      <c r="P17">
+        <v>7.673945317434258</v>
+      </c>
+      <c r="Q17">
+        <v>0.01244188062487829</v>
+      </c>
+      <c r="R17">
+        <v>22.02644296500717</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
+      <c r="A18">
+        <v>2</v>
+      </c>
+      <c r="B18" t="s">
+        <v>140</v>
+      </c>
+      <c r="C18" t="s">
+        <v>168</v>
+      </c>
+      <c r="D18" t="s">
+        <v>169</v>
+      </c>
+      <c r="E18" t="s">
+        <v>188</v>
+      </c>
+      <c r="F18">
+        <v>81.44050544115737</v>
+      </c>
+      <c r="G18">
+        <v>650</v>
+      </c>
+      <c r="H18" t="s">
+        <v>85</v>
+      </c>
+      <c r="I18">
+        <v>9.525</v>
+      </c>
+      <c r="J18" t="s">
+        <v>84</v>
+      </c>
+      <c r="K18">
+        <v>8.758481331682836</v>
+      </c>
+      <c r="L18">
+        <v>16.66666666666667</v>
+      </c>
+      <c r="M18">
+        <v>10.35618333333334</v>
+      </c>
+      <c r="N18">
+        <v>8758481.331682835</v>
+      </c>
+      <c r="O18">
+        <v>8520056.163540566</v>
+      </c>
+      <c r="P18">
+        <v>7.66216432762607</v>
+      </c>
+      <c r="Q18">
+        <v>0.01240378118349813</v>
+      </c>
+      <c r="R18">
+        <v>21.51393562871387</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
+      <c r="A19">
+        <v>2</v>
+      </c>
+      <c r="B19" t="s">
+        <v>141</v>
+      </c>
+      <c r="C19" t="s">
+        <v>169</v>
+      </c>
+      <c r="D19" t="s">
+        <v>170</v>
+      </c>
+      <c r="E19" t="s">
+        <v>188</v>
+      </c>
+      <c r="F19">
+        <v>81.44050544115737</v>
+      </c>
+      <c r="G19">
+        <v>650</v>
+      </c>
+      <c r="H19" t="s">
+        <v>85</v>
+      </c>
+      <c r="I19">
+        <v>9.525</v>
+      </c>
+      <c r="J19" t="s">
+        <v>84</v>
+      </c>
+      <c r="K19">
+        <v>8.758481331682836</v>
+      </c>
+      <c r="L19">
+        <v>16.66666666666667</v>
+      </c>
+      <c r="M19">
+        <v>10.35618333333334</v>
+      </c>
+      <c r="N19">
+        <v>8520056.163540566</v>
+      </c>
+      <c r="O19">
+        <v>8274866.56989496</v>
+      </c>
+      <c r="P19">
+        <v>7.670171971991958</v>
+      </c>
+      <c r="Q19">
+        <v>0.01242857107763413</v>
+      </c>
+      <c r="R19">
+        <v>21.82565094000351</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
+      <c r="A20">
+        <v>2</v>
+      </c>
+      <c r="B20" t="s">
+        <v>142</v>
+      </c>
+      <c r="C20" t="s">
+        <v>170</v>
+      </c>
+      <c r="D20" t="s">
+        <v>185</v>
+      </c>
+      <c r="E20" t="s">
+        <v>188</v>
+      </c>
+      <c r="F20">
+        <v>81.44050544115736</v>
+      </c>
+      <c r="G20">
+        <v>650</v>
+      </c>
+      <c r="H20" t="s">
+        <v>85</v>
+      </c>
+      <c r="I20">
+        <v>9.525</v>
+      </c>
+      <c r="J20" t="s">
+        <v>84</v>
+      </c>
+      <c r="K20">
+        <v>8.758481331682836</v>
+      </c>
+      <c r="L20">
+        <v>16.66666666666667</v>
+      </c>
+      <c r="M20">
+        <v>10.35618333333334</v>
+      </c>
+      <c r="N20">
+        <v>8274866.56989496</v>
+      </c>
+      <c r="O20">
+        <v>8022291.781275438</v>
+      </c>
+      <c r="P20">
+        <v>7.678204922037245</v>
+      </c>
+      <c r="Q20">
+        <v>0.01245359411427494</v>
+      </c>
+      <c r="R20">
+        <v>22.16228900169007</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
+      <c r="A21">
+        <v>2</v>
+      </c>
+      <c r="B21" t="s">
+        <v>143</v>
+      </c>
+      <c r="C21" t="s">
+        <v>171</v>
+      </c>
+      <c r="D21" t="s">
+        <v>172</v>
+      </c>
+      <c r="E21" t="s">
+        <v>188</v>
+      </c>
+      <c r="F21">
+        <v>81.33419330879887</v>
+      </c>
+      <c r="G21">
+        <v>650</v>
+      </c>
+      <c r="H21" t="s">
+        <v>85</v>
+      </c>
+      <c r="I21">
+        <v>9.525</v>
+      </c>
+      <c r="J21" t="s">
+        <v>84</v>
+      </c>
+      <c r="K21">
+        <v>8.758481331682836</v>
+      </c>
+      <c r="L21">
+        <v>16.66666666666666</v>
+      </c>
+      <c r="M21">
+        <v>10.35618333333333</v>
+      </c>
+      <c r="N21">
+        <v>8758481.331682835</v>
+      </c>
+      <c r="O21">
+        <v>8520672.888320364</v>
+      </c>
+      <c r="P21">
+        <v>7.652162166862091</v>
+      </c>
+      <c r="Q21">
+        <v>0.01238756004551987</v>
+      </c>
+      <c r="R21">
+        <v>21.51316832996786</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
+      <c r="A22">
+        <v>2</v>
+      </c>
+      <c r="B22" t="s">
+        <v>144</v>
+      </c>
+      <c r="C22" t="s">
+        <v>172</v>
+      </c>
+      <c r="D22" t="s">
+        <v>173</v>
+      </c>
+      <c r="E22" t="s">
+        <v>188</v>
+      </c>
+      <c r="F22">
+        <v>81.33419330879902</v>
+      </c>
+      <c r="G22">
+        <v>650</v>
+      </c>
+      <c r="H22" t="s">
+        <v>85</v>
+      </c>
+      <c r="I22">
+        <v>9.525</v>
+      </c>
+      <c r="J22" t="s">
+        <v>84</v>
+      </c>
+      <c r="K22">
+        <v>8.758481331682836</v>
+      </c>
+      <c r="L22">
+        <v>16.66666666666667</v>
+      </c>
+      <c r="M22">
+        <v>10.35618333333334</v>
+      </c>
+      <c r="N22">
+        <v>8520672.888320364</v>
+      </c>
+      <c r="O22">
+        <v>8276135.970718376</v>
+      </c>
+      <c r="P22">
+        <v>7.660159358078846</v>
+      </c>
+      <c r="Q22">
+        <v>0.0124122849081201</v>
+      </c>
+      <c r="R22">
+        <v>21.82400206435616</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
+      <c r="A23">
+        <v>2</v>
+      </c>
+      <c r="B23" t="s">
+        <v>145</v>
+      </c>
+      <c r="C23" t="s">
+        <v>173</v>
+      </c>
+      <c r="D23" t="s">
+        <v>186</v>
+      </c>
+      <c r="E23" t="s">
+        <v>188</v>
+      </c>
+      <c r="F23">
+        <v>81.33419330879883</v>
+      </c>
+      <c r="G23">
+        <v>650</v>
+      </c>
+      <c r="H23" t="s">
+        <v>85</v>
+      </c>
+      <c r="I23">
+        <v>9.525</v>
+      </c>
+      <c r="J23" t="s">
+        <v>84</v>
+      </c>
+      <c r="K23">
+        <v>8.758481331682836</v>
+      </c>
+      <c r="L23">
+        <v>16.66666666666667</v>
+      </c>
+      <c r="M23">
+        <v>10.35618333333334</v>
+      </c>
+      <c r="N23">
+        <v>8276135.970718376</v>
+      </c>
+      <c r="O23">
+        <v>8024254.988646143</v>
+      </c>
+      <c r="P23">
+        <v>7.668181821941056</v>
+      </c>
+      <c r="Q23">
+        <v>0.01243724298932732</v>
+      </c>
+      <c r="R23">
+        <v>22.15961171827651</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
+      <c r="A24">
+        <v>3</v>
+      </c>
+      <c r="B24" t="s">
+        <v>146</v>
+      </c>
+      <c r="C24" t="s">
+        <v>174</v>
+      </c>
+      <c r="D24" t="s">
+        <v>175</v>
+      </c>
+      <c r="E24" t="s">
+        <v>188</v>
+      </c>
+      <c r="F24">
+        <v>81.22831727508496</v>
+      </c>
+      <c r="G24">
+        <v>650</v>
+      </c>
+      <c r="H24" t="s">
+        <v>85</v>
+      </c>
+      <c r="I24">
+        <v>9.525</v>
+      </c>
+      <c r="J24" t="s">
+        <v>84</v>
+      </c>
+      <c r="K24">
+        <v>8.758481331682836</v>
+      </c>
+      <c r="L24">
+        <v>16.66666666666667</v>
+      </c>
+      <c r="M24">
+        <v>10.35618333333334</v>
+      </c>
+      <c r="N24">
+        <v>8758481.331682835</v>
+      </c>
+      <c r="O24">
+        <v>8521286.26191951</v>
+      </c>
+      <c r="P24">
+        <v>7.642201035551829</v>
+      </c>
+      <c r="Q24">
+        <v>0.01237140556456692</v>
+      </c>
+      <c r="R24">
+        <v>21.51240528202044</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
+      <c r="A25">
+        <v>3</v>
+      </c>
+      <c r="B25" t="s">
+        <v>147</v>
+      </c>
+      <c r="C25" t="s">
+        <v>175</v>
+      </c>
+      <c r="D25" t="s">
+        <v>176</v>
+      </c>
+      <c r="E25" t="s">
+        <v>188</v>
+      </c>
+      <c r="F25">
+        <v>81.22831727508526</v>
+      </c>
+      <c r="G25">
+        <v>650</v>
+      </c>
+      <c r="H25" t="s">
+        <v>85</v>
+      </c>
+      <c r="I25">
+        <v>9.525</v>
+      </c>
+      <c r="J25" t="s">
+        <v>84</v>
+      </c>
+      <c r="K25">
+        <v>8.758481331682836</v>
+      </c>
+      <c r="L25">
+        <v>16.66666666666667</v>
+      </c>
+      <c r="M25">
+        <v>10.35618333333334</v>
+      </c>
+      <c r="N25">
+        <v>8521286.26191951</v>
+      </c>
+      <c r="O25">
+        <v>8277398.373414061</v>
+      </c>
+      <c r="P25">
+        <v>7.650187816498916</v>
+      </c>
+      <c r="Q25">
+        <v>0.0123960658021778</v>
+      </c>
+      <c r="R25">
+        <v>21.82236264942306</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18">
+      <c r="A26">
+        <v>3</v>
+      </c>
+      <c r="B26" t="s">
+        <v>148</v>
+      </c>
+      <c r="C26" t="s">
+        <v>176</v>
+      </c>
+      <c r="D26" t="s">
+        <v>177</v>
+      </c>
+      <c r="E26" t="s">
+        <v>188</v>
+      </c>
+      <c r="F26">
+        <v>81.22831727508522</v>
+      </c>
+      <c r="G26">
+        <v>650</v>
+      </c>
+      <c r="H26" t="s">
+        <v>85</v>
+      </c>
+      <c r="I26">
+        <v>9.525</v>
+      </c>
+      <c r="J26" t="s">
+        <v>84</v>
+      </c>
+      <c r="K26">
+        <v>8.758481331682836</v>
+      </c>
+      <c r="L26">
+        <v>16.66666666666667</v>
+      </c>
+      <c r="M26">
+        <v>10.35618333333334</v>
+      </c>
+      <c r="N26">
+        <v>8277398.373414061</v>
+      </c>
+      <c r="O26">
+        <v>8026207.197351886</v>
+      </c>
+      <c r="P26">
+        <v>7.658199837193025</v>
+      </c>
+      <c r="Q26">
+        <v>0.01242095934285899</v>
+      </c>
+      <c r="R26">
+        <v>22.15695039597083</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18">
+      <c r="A27">
+        <v>3</v>
+      </c>
+      <c r="B27" t="s">
+        <v>149</v>
+      </c>
+      <c r="C27" t="s">
+        <v>177</v>
+      </c>
+      <c r="D27" t="s">
+        <v>178</v>
+      </c>
+      <c r="E27" t="s">
+        <v>188</v>
+      </c>
+      <c r="F27">
+        <v>81.22831727508513</v>
+      </c>
+      <c r="G27">
+        <v>650</v>
+      </c>
+      <c r="H27" t="s">
+        <v>85</v>
+      </c>
+      <c r="I27">
+        <v>9.525</v>
+      </c>
+      <c r="J27" t="s">
+        <v>84</v>
+      </c>
+      <c r="K27">
+        <v>8.758481331682836</v>
+      </c>
+      <c r="L27">
+        <v>16.66666666666667</v>
+      </c>
+      <c r="M27">
+        <v>10.35618333333334</v>
+      </c>
+      <c r="N27">
+        <v>8026207.197351886</v>
+      </c>
+      <c r="O27">
+        <v>7767001.528345278</v>
+      </c>
+      <c r="P27">
+        <v>7.66623723116434</v>
+      </c>
+      <c r="Q27">
+        <v>0.01244641791198004</v>
+      </c>
+      <c r="R27">
+        <v>22.51926128244549</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18">
+      <c r="A28">
+        <v>3</v>
+      </c>
+      <c r="B28" t="s">
+        <v>150</v>
+      </c>
+      <c r="C28" t="s">
+        <v>178</v>
+      </c>
+      <c r="D28" t="s">
+        <v>179</v>
+      </c>
+      <c r="E28" t="s">
+        <v>188</v>
+      </c>
+      <c r="F28">
+        <v>81.22831727508509</v>
+      </c>
+      <c r="G28">
+        <v>650</v>
+      </c>
+      <c r="H28" t="s">
+        <v>85</v>
+      </c>
+      <c r="I28">
+        <v>9.525</v>
+      </c>
+      <c r="J28" t="s">
+        <v>84</v>
+      </c>
+      <c r="K28">
+        <v>8.758481331682836</v>
+      </c>
+      <c r="L28">
+        <v>16.66666666666667</v>
+      </c>
+      <c r="M28">
+        <v>10.35618333333334</v>
+      </c>
+      <c r="N28">
+        <v>7767001.528345278</v>
+      </c>
+      <c r="O28">
+        <v>7498940.920282046</v>
+      </c>
+      <c r="P28">
+        <v>7.674300132935468</v>
+      </c>
+      <c r="Q28">
+        <v>0.01247234975703727</v>
+      </c>
+      <c r="R28">
+        <v>22.91398842901298</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18">
+      <c r="A29">
+        <v>3</v>
+      </c>
+      <c r="B29" t="s">
+        <v>151</v>
+      </c>
+      <c r="C29" t="s">
+        <v>179</v>
+      </c>
+      <c r="D29" t="s">
+        <v>187</v>
+      </c>
+      <c r="E29" t="s">
+        <v>188</v>
+      </c>
+      <c r="F29">
+        <v>81.22831727508516</v>
+      </c>
+      <c r="G29">
+        <v>650</v>
+      </c>
+      <c r="H29" t="s">
+        <v>85</v>
+      </c>
+      <c r="I29">
+        <v>9.525</v>
+      </c>
+      <c r="J29" t="s">
+        <v>84</v>
+      </c>
+      <c r="K29">
+        <v>8.758481331682836</v>
+      </c>
+      <c r="L29">
+        <v>16.66666666666667</v>
+      </c>
+      <c r="M29">
+        <v>10.35618333333334</v>
+      </c>
+      <c r="N29">
+        <v>7498940.920282046</v>
+      </c>
+      <c r="O29">
+        <v>7221038.466508406</v>
+      </c>
+      <c r="P29">
+        <v>7.682388678030966</v>
+      </c>
+      <c r="Q29">
+        <v>0.01249873002769165</v>
+      </c>
+      <c r="R29">
+        <v>23.34681789871137</v>
       </c>
     </row>
   </sheetData>
@@ -2585,7 +3577,7 @@
   <sheetData>
     <row r="1" spans="1:18">
       <c r="A1" s="2" t="s">
-        <v>157</v>
+        <v>189</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -2600,43 +3592,43 @@
         <v>112</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>158</v>
+        <v>190</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>159</v>
+        <v>191</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>160</v>
+        <v>192</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>161</v>
+        <v>193</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>94</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>162</v>
+        <v>194</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>100</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>163</v>
+        <v>195</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>164</v>
+        <v>196</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>165</v>
+        <v>197</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>166</v>
+        <v>198</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>167</v>
+        <v>199</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>168</v>
+        <v>200</v>
       </c>
     </row>
     <row r="2" spans="1:18">
@@ -2647,13 +3639,13 @@
         <v>101</v>
       </c>
       <c r="C2" t="s">
-        <v>148</v>
+        <v>180</v>
       </c>
       <c r="D2" t="s">
-        <v>137</v>
+        <v>155</v>
       </c>
       <c r="E2" t="s">
-        <v>169</v>
+        <v>201</v>
       </c>
       <c r="F2">
         <v>35</v>
@@ -2662,22 +3654,22 @@
         <v>21.747985</v>
       </c>
       <c r="H2">
-        <v>1.103466063628981</v>
+        <v>1.104857714649175</v>
       </c>
       <c r="I2">
-        <v>31.89235885005626</v>
+        <v>32.85291374302739</v>
       </c>
       <c r="J2">
-        <v>3.336794919393752</v>
+        <v>3.437294688060416</v>
       </c>
       <c r="K2">
-        <v>4474.70872280541</v>
+        <v>4609.480922582779</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>3.336794919393752</v>
+        <v>3.437294688060416</v>
       </c>
       <c r="N2">
         <v>0.78</v>
@@ -2686,13 +3678,13 @@
         <v>0.357</v>
       </c>
       <c r="P2">
-        <v>11554520.13345122</v>
+        <v>11701763.49018096</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
       <c r="R2">
-        <v>11554520.13345122</v>
+        <v>11701763.49018096</v>
       </c>
     </row>
     <row r="3" spans="1:18">
@@ -2700,13 +3692,13 @@
         <v>102</v>
       </c>
       <c r="C3" t="s">
-        <v>149</v>
+        <v>181</v>
       </c>
       <c r="D3" t="s">
-        <v>139</v>
+        <v>158</v>
       </c>
       <c r="E3" t="s">
-        <v>156</v>
+        <v>188</v>
       </c>
       <c r="F3">
         <v>70</v>
@@ -2715,16 +3707,16 @@
         <v>43.49597</v>
       </c>
       <c r="H3">
-        <v>1.094347354033044</v>
+        <v>1.095682172914821</v>
       </c>
       <c r="I3">
-        <v>29.13345504672514</v>
+        <v>30.06936754706561</v>
       </c>
       <c r="J3">
-        <v>3.048139688925118</v>
+        <v>3.146061203317199</v>
       </c>
       <c r="K3">
-        <v>4087.616285642361</v>
+        <v>4218.93099487243</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -2756,13 +3748,13 @@
         <v>103</v>
       </c>
       <c r="C4" t="s">
-        <v>150</v>
+        <v>182</v>
       </c>
       <c r="D4" t="s">
-        <v>141</v>
+        <v>161</v>
       </c>
       <c r="E4" t="s">
-        <v>169</v>
+        <v>201</v>
       </c>
       <c r="F4">
         <v>113.3333333333333</v>
@@ -2771,22 +3763,22 @@
         <v>70.42204666666667</v>
       </c>
       <c r="H4">
-        <v>1.108386087890062</v>
+        <v>1.109950059446537</v>
       </c>
       <c r="I4">
-        <v>27.35034943541981</v>
+        <v>28.1706524519817</v>
       </c>
       <c r="J4">
-        <v>2.861579084470624</v>
+        <v>2.947404750452124</v>
       </c>
       <c r="K4">
-        <v>3837.434783856796</v>
+        <v>3952.528718451308</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>2.861579084470624</v>
+        <v>2.947404750452124</v>
       </c>
       <c r="N4">
         <v>0.78</v>
@@ -2795,13 +3787,13 @@
         <v>0.357</v>
       </c>
       <c r="P4">
-        <v>10860419.76641271</v>
+        <v>10985514.88815084</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
       <c r="R4">
-        <v>10860419.76641271</v>
+        <v>10985514.88815084</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -2812,13 +3804,13 @@
         <v>104</v>
       </c>
       <c r="C5" t="s">
-        <v>151</v>
+        <v>183</v>
       </c>
       <c r="D5" t="s">
-        <v>143</v>
+        <v>165</v>
       </c>
       <c r="E5" t="s">
-        <v>169</v>
+        <v>201</v>
       </c>
       <c r="F5">
         <v>156.6666666666667</v>
@@ -2827,22 +3819,22 @@
         <v>97.34812333333335</v>
       </c>
       <c r="H5">
-        <v>1.077398613934403</v>
+        <v>1.078450280681013</v>
       </c>
       <c r="I5">
-        <v>19.71711276978855</v>
+        <v>20.33995355962709</v>
       </c>
       <c r="J5">
-        <v>2.062938085723566</v>
+        <v>2.128103914093165</v>
       </c>
       <c r="K5">
-        <v>2766.441231717017</v>
+        <v>2853.829910877217</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>2.062938085723566</v>
+        <v>2.128103914093165</v>
       </c>
       <c r="N5">
         <v>0.78</v>
@@ -2865,13 +3857,13 @@
         <v>105</v>
       </c>
       <c r="C6" t="s">
-        <v>152</v>
+        <v>184</v>
       </c>
       <c r="D6" t="s">
-        <v>144</v>
+        <v>168</v>
       </c>
       <c r="E6" t="s">
-        <v>156</v>
+        <v>188</v>
       </c>
       <c r="F6">
         <v>200</v>
@@ -2880,16 +3872,16 @@
         <v>124.2742</v>
       </c>
       <c r="H6">
-        <v>1.07721459348549</v>
+        <v>1.078257480996399</v>
       </c>
       <c r="I6">
-        <v>19.65015455200927</v>
+        <v>20.26812558140298</v>
       </c>
       <c r="J6">
-        <v>2.055932462779588</v>
+        <v>2.12058878377824</v>
       </c>
       <c r="K6">
-        <v>2757.046551236683</v>
+        <v>2843.751970822295</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -2921,13 +3913,13 @@
         <v>106</v>
       </c>
       <c r="C7" t="s">
-        <v>153</v>
+        <v>185</v>
       </c>
       <c r="D7" t="s">
-        <v>145</v>
+        <v>171</v>
       </c>
       <c r="E7" t="s">
-        <v>169</v>
+        <v>201</v>
       </c>
       <c r="F7">
         <v>250</v>
@@ -2936,22 +3928,22 @@
         <v>155.34275</v>
       </c>
       <c r="H7">
-        <v>1.090520955638567</v>
+        <v>1.091767984820212</v>
       </c>
       <c r="I7">
-        <v>22.90241795773042</v>
+        <v>23.63485091834005</v>
       </c>
       <c r="J7">
-        <v>2.396206321472904</v>
+        <v>2.472838426148799</v>
       </c>
       <c r="K7">
-        <v>3213.360601221593</v>
+        <v>3316.125786234062</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>2.396206321472904</v>
+        <v>2.472838426148799</v>
       </c>
       <c r="N7">
         <v>0.78</v>
@@ -2960,13 +3952,13 @@
         <v>0.357</v>
       </c>
       <c r="P7">
-        <v>10184126.08078262</v>
+        <v>10295256.73200565</v>
       </c>
       <c r="Q7">
         <v>0</v>
       </c>
       <c r="R7">
-        <v>10184126.08078262</v>
+        <v>10295256.73200565</v>
       </c>
     </row>
     <row r="8" spans="1:18">
@@ -2974,31 +3966,31 @@
         <v>107</v>
       </c>
       <c r="C8" t="s">
-        <v>154</v>
+        <v>186</v>
       </c>
       <c r="D8" t="s">
-        <v>146</v>
+        <v>174</v>
       </c>
       <c r="E8" t="s">
-        <v>156</v>
+        <v>188</v>
       </c>
       <c r="F8">
-        <v>300</v>
+        <v>300.0000000000001</v>
       </c>
       <c r="G8">
         <v>186.4113</v>
       </c>
       <c r="H8">
-        <v>1.090266200750755</v>
+        <v>1.091500873797702</v>
       </c>
       <c r="I8">
-        <v>22.81113749430935</v>
+        <v>23.53789936397009</v>
       </c>
       <c r="J8">
-        <v>2.386655940203981</v>
+        <v>2.462694696875903</v>
       </c>
       <c r="K8">
-        <v>3200.553348932342</v>
+        <v>3302.522842404523</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -3029,7 +4021,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B37"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3037,15 +4029,15 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
-        <v>170</v>
+        <v>202</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>171</v>
+        <v>203</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>136</v>
+        <v>152</v>
       </c>
       <c r="B2">
         <v>8700000</v>
@@ -3053,63 +4045,63 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="B3">
-        <v>7937245.757136126</v>
+        <v>8413873.687126147</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>137</v>
+        <v>154</v>
       </c>
       <c r="B4">
-        <v>8758481.331682835</v>
+        <v>8117821.877883612</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>138</v>
+        <v>180</v>
       </c>
       <c r="B5">
-        <v>8654538.016343614</v>
+        <v>7927248.201786697</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="B6">
-        <v>8003383.294531522</v>
+        <v>8758481.331682835</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>139</v>
+        <v>156</v>
       </c>
       <c r="B7">
-        <v>8758481.331682835</v>
+        <v>8653298.634393794</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>140</v>
+        <v>157</v>
       </c>
       <c r="B8">
-        <v>8083802.145601097</v>
+        <v>8329907.201703677</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>150</v>
+        <v>181</v>
       </c>
       <c r="B9">
-        <v>7902013.050665035</v>
+        <v>7993633.143069969</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>141</v>
+        <v>158</v>
       </c>
       <c r="B10">
         <v>8758481.331682835</v>
@@ -3117,71 +4109,71 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>142</v>
+        <v>159</v>
       </c>
       <c r="B11">
-        <v>8229133.291143322</v>
+        <v>8423689.845105235</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="B12">
-        <v>8129285.872847885</v>
+        <v>8075240.343752847</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>143</v>
+        <v>182</v>
       </c>
       <c r="B13">
-        <v>8758481.331682835</v>
+        <v>7890878.744625815</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="B14">
-        <v>8130674.597847262</v>
+        <v>8758481.331682835</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>144</v>
+        <v>162</v>
       </c>
       <c r="B15">
-        <v>8758481.331682835</v>
+        <v>8696839.04869429</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="B16">
-        <v>8031465.40779146</v>
+        <v>8462966.932250882</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>145</v>
+        <v>164</v>
       </c>
       <c r="B17">
-        <v>8758481.331682835</v>
+        <v>8222545.415538021</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>154</v>
+        <v>183</v>
       </c>
       <c r="B18">
-        <v>8033342.064214927</v>
+        <v>8121358.479458209</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>146</v>
+        <v>165</v>
       </c>
       <c r="B19">
         <v>8758481.331682835</v>
@@ -3189,18 +4181,146 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>147</v>
+        <v>166</v>
       </c>
       <c r="B20">
-        <v>8035208.523624305</v>
+        <v>8615891.687573487</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>155</v>
+        <v>167</v>
       </c>
       <c r="B21">
-        <v>7242028.792560505</v>
+        <v>8372928.667971016</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>184</v>
+      </c>
+      <c r="B22">
+        <v>8122810.632938321</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>168</v>
+      </c>
+      <c r="B23">
+        <v>8758481.331682835</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>169</v>
+      </c>
+      <c r="B24">
+        <v>8520056.163540566</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>170</v>
+      </c>
+      <c r="B25">
+        <v>8274866.56989496</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>185</v>
+      </c>
+      <c r="B26">
+        <v>8022291.781275438</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>171</v>
+      </c>
+      <c r="B27">
+        <v>8758481.331682835</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>172</v>
+      </c>
+      <c r="B28">
+        <v>8520672.888320364</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>173</v>
+      </c>
+      <c r="B29">
+        <v>8276135.970718376</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>186</v>
+      </c>
+      <c r="B30">
+        <v>8024254.988646143</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
+        <v>174</v>
+      </c>
+      <c r="B31">
+        <v>8758481.331682835</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
+        <v>175</v>
+      </c>
+      <c r="B32">
+        <v>8521286.26191951</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>176</v>
+      </c>
+      <c r="B33">
+        <v>8277398.373414061</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
+        <v>177</v>
+      </c>
+      <c r="B34">
+        <v>8026207.197351886</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" t="s">
+        <v>178</v>
+      </c>
+      <c r="B35">
+        <v>7767001.528345278</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" t="s">
+        <v>179</v>
+      </c>
+      <c r="B36">
+        <v>7498940.920282046</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" t="s">
+        <v>187</v>
+      </c>
+      <c r="B37">
+        <v>7221038.466508406</v>
       </c>
     </row>
   </sheetData>
@@ -3218,36 +4338,36 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
-        <v>172</v>
+        <v>204</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>173</v>
+        <v>205</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>174</v>
+        <v>206</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>175</v>
+        <v>207</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>176</v>
+        <v>208</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>177</v>
+        <v>209</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>178</v>
+        <v>210</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="B2">
         <v>17.65832997587177</v>
       </c>
       <c r="C2">
-        <v>17.65833009701873</v>
+        <v>17.65832991514574</v>
       </c>
       <c r="D2">
         <v>65.15454188318284</v>
@@ -3256,21 +4376,21 @@
         <v>1150.5204</v>
       </c>
       <c r="F2">
-        <v>1150.520407893275</v>
+        <v>1150.520396043424</v>
       </c>
       <c r="G2">
-        <v>6.860612989928433E-07</v>
+        <v>-3.438944872133598E-07</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>155</v>
+        <v>187</v>
       </c>
       <c r="B3">
         <v>45.91165732334162</v>
       </c>
       <c r="C3">
-        <v>45.91165732334161</v>
+        <v>45.91165732334163</v>
       </c>
       <c r="D3">
         <v>65.15454188318284</v>
@@ -3279,21 +4399,21 @@
         <v>2991.353</v>
       </c>
       <c r="F3">
-        <v>2991.353</v>
+        <v>2991.353000000001</v>
       </c>
       <c r="G3">
-        <v>-1.547630334396267E-14</v>
+        <v>1.547630334396267E-14</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>179</v>
+        <v>211</v>
       </c>
       <c r="B4">
         <v>35.31665995174353</v>
       </c>
       <c r="C4">
-        <v>35.31665995174352</v>
+        <v>35.31665995174353</v>
       </c>
       <c r="D4">
         <v>65.15454188318284</v>
@@ -3305,7 +4425,7 @@
         <v>2301.0408</v>
       </c>
       <c r="G4">
-        <v>-2.011919407812011E-14</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
